--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N483"/>
+  <dimension ref="A1:N484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3992,7 +3992,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4002,12 +4002,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 3262</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4025,20 +4025,36 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Colocar R400 para posterior traspaso</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M55" t="n">
-        <v>-58.450827</v>
+        <v>-58.450789</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.578021</v>
+        <v>-34.577949</v>
       </c>
     </row>
     <row r="56">
@@ -22361,7 +22377,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -22973,7 +22989,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -32179,6 +32195,70 @@
       </c>
       <c r="N483" t="n">
         <v>-34.574614</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>6249</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>6/25/2025</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>GODOY CRUZ 2696</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Inclinada posible cambio</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M484" t="n">
+        <v>-58.425296</v>
+      </c>
+      <c r="N484" t="n">
+        <v>-34.578706</v>
       </c>
     </row>
   </sheetData>
@@ -32943,27 +33023,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>12/18/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>VERA 1081</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>801734625</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -32978,7 +33058,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>*Realizar traspasos y retiro de columna vieja*</t>
+          <t>PICADA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -32988,7 +33068,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -33002,36 +33082,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.44244</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.593883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>CALVO, CARLOS 1784</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>802857158</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -33046,7 +33126,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -33056,7 +33136,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -33070,36 +33150,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.44244</v>
+        <v>-58.391218</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.593883</v>
+        <v>-34.620237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1784</t>
+          <t>ALVAREZ, JULIAN 2395</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802857158</t>
+          <t>803086849</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -33114,7 +33194,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -33124,7 +33204,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -33134,40 +33214,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.391218</v>
+        <v>-58.4158</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.620237</v>
+        <v>-34.587493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/12/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALVAREZ, JULIAN 2395</t>
+          <t>ALVAREZ THOMAS AV. 1335</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803086849</t>
+          <t>803607583</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -33182,7 +33262,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>fuera de plomo</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -33192,7 +33272,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -33206,26 +33286,26 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.4158</v>
+        <v>-58.460926</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.587493</v>
+        <v>-34.578223</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>AVALOS 1509</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -33235,7 +33315,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>803608336</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -33250,17 +33330,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fuera de plomo</t>
+          <t>Cambiar columna dañada en la base</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -33270,40 +33350,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.460926</v>
+        <v>-58.478516</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.578223</v>
+        <v>-34.582841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AVALOS 1509</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803608336</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -33318,7 +33398,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambiar columna dañada en la base</t>
+          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -33333,7 +33413,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -33342,36 +33422,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.478516</v>
+        <v>-58.487666</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.582841</v>
+        <v>-34.649704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -33386,22 +33466,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Prioridad cambiar columna 114 quebrada en base tiene fuente propia.</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -33410,36 +33490,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.487666</v>
+        <v>-58.426593</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.649704</v>
+        <v>-34.628211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>LA PAMPA 5510</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804309657</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -33454,7 +33534,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -33464,7 +33544,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -33478,16 +33558,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.426593</v>
+        <v>-58.484185</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.628211</v>
+        <v>-34.582206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -33497,17 +33577,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -33522,7 +33602,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -33546,16 +33626,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.484185</v>
+        <v>-58.442791</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.582206</v>
+        <v>-34.569495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -33565,17 +33645,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -33590,7 +33670,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -33600,7 +33680,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -33614,36 +33694,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.442791</v>
+        <v>-58.48396</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.569495</v>
+        <v>-34.582874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -33678,20 +33758,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.48396</v>
+        <v>-58.423996</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.582874</v>
+        <v>-34.594973</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -33701,17 +33781,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>LAMARCA, EMILIO 224</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804323949</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -33726,7 +33806,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -33736,7 +33816,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -33750,16 +33830,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.423996</v>
+        <v>-58.477988</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.594973</v>
+        <v>-34.630001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -33769,17 +33849,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>BOGOTA 2936</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804323945</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -33818,36 +33898,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.477988</v>
+        <v>-58.4716</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.630001</v>
+        <v>-34.627623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -33886,36 +33966,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.4716</v>
+        <v>-58.397031</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.627623</v>
+        <v>-34.591926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -33930,12 +34010,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -33954,26 +34034,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.397031</v>
+        <v>-58.396135</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591926</v>
+        <v>-34.624285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>ALBERTI 621</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33983,7 +34063,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>805507259</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -33998,12 +34078,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -34022,36 +34102,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.396135</v>
+        <v>-58.401202</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.624285</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALBERTI 621</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507259</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -34066,7 +34146,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -34086,14 +34166,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.401202</v>
+        <v>-58.369244</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61683</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="29">
@@ -35875,7 +35955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36434,27 +36514,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -36469,7 +36549,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -36479,40 +36559,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -36522,7 +36602,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -36537,7 +36617,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -36552,7 +36632,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -36561,36 +36641,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -36605,7 +36685,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -36620,7 +36700,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -36629,36 +36709,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -36673,12 +36753,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -36688,7 +36768,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -36697,36 +36777,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.447022</v>
+        <v>-58.443626</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.575873</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -36741,7 +36821,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -36756,7 +36836,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -36765,36 +36845,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.440625</v>
+        <v>-58.450789</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.625499</v>
+        <v>-34.577949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -36809,12 +36889,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -36833,36 +36913,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.435755</v>
+        <v>-58.447022</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621286</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -36877,7 +36957,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -36892,7 +36972,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -36901,36 +36981,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.400156</v>
+        <v>-58.440625</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.631369</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -36945,7 +37025,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -36969,36 +37049,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.402062</v>
+        <v>-58.435755</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.635143</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -37013,7 +37093,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -37028,7 +37108,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -37037,36 +37117,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.443039</v>
+        <v>-58.400156</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.612262</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -37081,7 +37161,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -37096,45 +37176,45 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.506348</v>
+        <v>-58.402062</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607461</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -37149,7 +37229,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -37173,36 +37253,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.496255</v>
+        <v>-58.443039</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.650599</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -37217,12 +37297,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -37237,40 +37317,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -37285,12 +37365,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -37309,36 +37389,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.403583</v>
+        <v>-58.496255</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.591604</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -37353,12 +37433,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -37377,36 +37457,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -37421,12 +37501,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -37436,7 +37516,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -37445,36 +37525,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.445131</v>
+        <v>-58.403583</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.572117</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -37489,7 +37569,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -37513,36 +37593,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.425764</v>
+        <v>-58.439791</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.604359</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -37557,7 +37637,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -37567,12 +37647,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -37581,36 +37661,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.439751</v>
+        <v>-58.445131</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.609908</v>
+        <v>-34.572117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -37625,7 +37705,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -37635,7 +37715,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -37649,16 +37729,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.43607</v>
+        <v>-58.425764</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61926</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -37668,17 +37748,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -37693,7 +37773,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -37703,7 +37783,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -37717,36 +37797,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.375515</v>
+        <v>-58.439751</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.634393</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -37761,7 +37841,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -37771,7 +37851,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -37785,36 +37865,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.451203</v>
+        <v>-58.43607</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.576561</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -37829,7 +37909,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -37853,36 +37933,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.415839</v>
+        <v>-58.375515</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.599291</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -37897,7 +37977,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -37917,40 +37997,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.369244</v>
+        <v>-58.451203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.628787</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -37965,7 +38045,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -37989,36 +38069,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.469148</v>
+        <v>-58.415839</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.687883</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -38033,7 +38113,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -38048,7 +38128,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -38057,36 +38137,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.395063</v>
+        <v>-58.440177</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.606257</v>
+        <v>-34.56291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -38101,7 +38181,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -38111,7 +38191,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -38125,16 +38205,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.429977</v>
+        <v>-58.469148</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.615514</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -38144,17 +38224,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -38169,7 +38249,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -38179,12 +38259,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -38193,36 +38273,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.421623</v>
+        <v>-58.395063</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.614541</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -38237,7 +38317,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -38247,7 +38327,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -38261,36 +38341,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.47888</v>
+        <v>-58.429977</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.571108</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -38305,7 +38385,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -38315,7 +38395,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -38329,16 +38409,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -38348,17 +38428,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -38373,7 +38453,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -38393,40 +38473,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.51232</v>
+        <v>-58.47888</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.595637</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -38441,7 +38521,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -38465,36 +38545,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.483104</v>
+        <v>-58.443196</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.572353</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -38509,7 +38589,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -38519,7 +38599,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -38533,36 +38613,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.483927</v>
+        <v>-58.51232</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.570689</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -38601,36 +38681,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.501766</v>
+        <v>-58.483104</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.574369</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -38645,7 +38725,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -38655,7 +38735,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -38665,40 +38745,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.467789</v>
+        <v>-58.483927</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.68463</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -38713,7 +38793,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -38737,26 +38817,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.468182</v>
+        <v>-58.501766</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.685231</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -38766,7 +38846,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -38781,7 +38861,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -38801,20 +38881,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.477944</v>
+        <v>-58.467789</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.675149</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -38824,17 +38904,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -38849,7 +38929,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -38873,36 +38953,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.4212</v>
+        <v>-58.468182</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.623575</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -38917,7 +38997,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -38927,7 +39007,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -38937,30 +39017,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.487371</v>
+        <v>-58.477944</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.640099</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -38970,7 +39050,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -38985,7 +39065,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -39009,16 +39089,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.425845</v>
+        <v>-58.4212</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.616562</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -39028,17 +39108,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -39053,7 +39133,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -39063,7 +39143,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -39073,26 +39153,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-34.640099</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -39102,7 +39186,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -39117,7 +39201,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -39141,26 +39225,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -39170,7 +39254,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -39185,7 +39269,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -39208,17 +39292,13 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.601217</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -39228,7 +39308,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -39238,7 +39318,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -39253,7 +39333,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -39277,16 +39357,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -39296,7 +39376,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -39306,7 +39386,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -39321,7 +39401,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -39345,36 +39425,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -39389,7 +39469,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -39399,7 +39479,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -39413,26 +39493,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -39442,7 +39522,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -39457,7 +39537,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -39467,7 +39547,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -39481,36 +39561,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -39525,7 +39605,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -39535,7 +39615,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -39545,40 +39625,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -39593,7 +39673,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -39603,7 +39683,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -39613,40 +39693,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -39661,7 +39741,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -39671,7 +39751,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -39685,78 +39765,278 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>6229</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ALVAREZ THOMAS AV. 309</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807762987</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reparar rienda </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.44848</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.581338</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NEWBERY, JORGE AV. 3416</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807762990</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.448496</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.58182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>6236</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>6/24/2025</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>San Jose 1157</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>807763095</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Optical Power</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M59" t="n">
         <v>-58.385887</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N59" t="n">
         <v>-34.621845</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6249</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6/25/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GODOY CRUZ 2696</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Inclinada posible cambio</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.425296</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.578706</v>
       </c>
     </row>
   </sheetData>
@@ -46488,7 +46768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53591,7 +53871,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707275</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -53601,17 +53881,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>Cuenca 4262</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707275</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -53650,16 +53930,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.440177</v>
+        <v>-58.503216</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.56291</v>
+        <v>-34.592027</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>805707275</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -53669,17 +53949,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cuenca 4262</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>805707275</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -53718,16 +53998,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.503216</v>
+        <v>-58.387847</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.592027</v>
+        <v>-34.587043</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>805722772</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -53737,17 +54017,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Luis Maria Campos 1336</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805722772</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -53786,16 +54066,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.387847</v>
+        <v>-58.44191</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.587043</v>
+        <v>-34.564245</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>805722772</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -53805,17 +54085,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 1336</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>805722772</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -53830,7 +54110,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -53840,7 +54120,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -53850,40 +54130,40 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.44191</v>
+        <v>-58.466241</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.564245</v>
+        <v>-34.57047</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -53898,7 +54178,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -53908,7 +54188,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -53918,20 +54198,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.466241</v>
+        <v>-58.46579</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.57047</v>
+        <v>-34.555012</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -53941,7 +54221,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -53951,7 +54231,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -53966,7 +54246,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -53976,7 +54256,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -53990,16 +54270,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.46579</v>
+        <v>-58.451835</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.555012</v>
+        <v>-34.562646</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -54009,17 +54289,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -54034,7 +54314,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -54044,7 +54324,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -54054,20 +54334,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.451835</v>
+        <v>-58.488252</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.562646</v>
+        <v>-34.553391</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -54077,7 +54357,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -54087,7 +54367,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -54102,7 +54382,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -54112,7 +54392,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -54126,16 +54406,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.488252</v>
+        <v>-58.470837</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.553391</v>
+        <v>-34.545751</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -54145,7 +54425,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -54155,7 +54435,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -54170,7 +54450,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -54185,45 +54465,45 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>806926499</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Av. Rivadavia 6713</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926499</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -54238,7 +54518,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -54253,7 +54533,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -54262,36 +54542,36 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>-58.472267</v>
+        <v>-58.460019</v>
       </c>
       <c r="N119" t="n">
-        <v>-34.551163</v>
+        <v>-34.628014</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>806926499</t>
+          <t>-419</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Av. Rivadavia 6713</t>
+          <t>Juana Azurduy 1520</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>806926499</t>
+          <t>806926532</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -54306,7 +54586,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -54316,12 +54596,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -54330,16 +54610,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-58.460019</v>
+        <v>-58.458478</v>
       </c>
       <c r="N120" t="n">
-        <v>-34.628014</v>
+        <v>-34.546285</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-419</t>
+          <t>-418</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -54349,17 +54629,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Juana Azurduy 1520</t>
+          <t>Porcel de Peralta 415</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>806926532</t>
+          <t>806926542</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -54374,7 +54654,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Pendiente New OT:653373649 aplomar cementar y colocar rienda - VIRARDI</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -54384,12 +54664,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -54398,16 +54678,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-58.458478</v>
+        <v>-58.520671</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.546285</v>
+        <v>-34.632922</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-418</t>
+          <t>-417</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -54417,7 +54697,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 415</t>
+          <t>Porcel de Peralta 535</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -54427,7 +54707,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>806926542</t>
+          <t>806926548</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -54442,7 +54722,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Pendiente New OT:653373649 aplomar cementar y colocar rienda - VIRARDI</t>
+          <t>Pendiente New OT 65330068 aplomo de columna 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -54452,7 +54732,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -54466,16 +54746,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>-58.520671</v>
+        <v>-58.52231</v>
       </c>
       <c r="N122" t="n">
-        <v>-34.632922</v>
+        <v>-34.632171</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-417</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -54485,17 +54765,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 535</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>806926548</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -54510,7 +54790,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Pendiente New OT 65330068 aplomo de columna 114 - VIRARDI</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -54534,16 +54814,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>-58.52231</v>
+        <v>-58.464144</v>
       </c>
       <c r="N123" t="n">
-        <v>-34.632171</v>
+        <v>-34.541832</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -54553,7 +54833,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -54563,7 +54843,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -54578,7 +54858,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -54602,16 +54882,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>-58.464144</v>
+        <v>-58.485102</v>
       </c>
       <c r="N124" t="n">
-        <v>-34.541832</v>
+        <v>-34.572327</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-424</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -54621,17 +54901,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Jose Enrique Rodo 4487</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926590</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -54646,7 +54926,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva de PVC Pendiente New OT:785944054 - VIRARDI</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -54670,16 +54950,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>-58.485102</v>
+        <v>-58.487917</v>
       </c>
       <c r="N125" t="n">
-        <v>-34.572327</v>
+        <v>-34.64481</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-424</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -54689,7 +54969,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Jose Enrique Rodo 4487</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -54699,7 +54979,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>806926590</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -54714,7 +54994,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva de PVC Pendiente New OT:785944054 - VIRARDI</t>
+          <t>Aplomar/ cambiar columna de 114. Reclamo municipal asociado a OT:783370775 se anula OT y se dividen tareas. - VIRARDI</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -54738,16 +55018,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>-58.487917</v>
+        <v>-58.501029</v>
       </c>
       <c r="N126" t="n">
-        <v>-34.64481</v>
+        <v>-34.673558</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -54757,7 +55037,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -54767,7 +55047,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -54782,7 +55062,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aplomar/ cambiar columna de 114. Reclamo municipal asociado a OT:783370775 se anula OT y se dividen tareas. - VIRARDI</t>
+          <t>Reclamo municipal asociado a OT 783370775 se anua OT y se separan tareas. Alomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -54792,7 +55072,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -54802,20 +55082,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>-58.501029</v>
+        <v>-58.501565</v>
       </c>
       <c r="N127" t="n">
-        <v>-34.673558</v>
+        <v>-34.673845</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -54825,17 +55105,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -54850,7 +55130,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Reclamo municipal asociado a OT 783370775 se anua OT y se separan tareas. Alomar columna de 168 con rienda</t>
+          <t>Dar prioridad. Chocada en accidente</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -54860,7 +55140,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -54870,20 +55150,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>-58.501565</v>
+        <v>-58.429972</v>
       </c>
       <c r="N128" t="n">
-        <v>-34.673845</v>
+        <v>-34.632042</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -54893,17 +55173,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -54918,7 +55198,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Dar prioridad. Chocada en accidente</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -54942,16 +55222,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>-58.429972</v>
+        <v>-58.434761</v>
       </c>
       <c r="N129" t="n">
-        <v>-34.632042</v>
+        <v>-34.598381</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -54961,17 +55241,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -54986,7 +55266,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -55010,16 +55290,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>-58.434761</v>
+        <v>-58.433867</v>
       </c>
       <c r="N130" t="n">
-        <v>-34.598381</v>
+        <v>-34.599149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -55029,17 +55309,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -55054,7 +55334,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -55074,20 +55354,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>-58.433867</v>
+        <v>-58.464177</v>
       </c>
       <c r="N131" t="n">
-        <v>-34.599149</v>
+        <v>-34.558239</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -55097,17 +55377,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -55122,7 +55402,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -55142,20 +55422,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N132" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -55165,17 +55445,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -55190,7 +55470,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -55214,16 +55494,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>-58.412302</v>
+        <v>-58.511375</v>
       </c>
       <c r="N133" t="n">
-        <v>-34.59301</v>
+        <v>-34.600017</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -55233,17 +55513,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -55258,7 +55538,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Columna base podrida</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -55282,16 +55562,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>-58.511375</v>
+        <v>-58.422268</v>
       </c>
       <c r="N134" t="n">
-        <v>-34.600017</v>
+        <v>-34.627754</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -55301,17 +55581,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -55326,7 +55606,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Columna base podrida</t>
+          <t>Columna 114</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -55341,7 +55621,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -55350,36 +55630,36 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N135" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -55394,12 +55674,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Columna 114</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -55409,7 +55689,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -55418,36 +55698,36 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>-58.423148</v>
+        <v>-58.485056</v>
       </c>
       <c r="N136" t="n">
-        <v>-34.576964</v>
+        <v>-34.555059</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>806981757</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Rodo 5185</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806981757</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -55462,12 +55742,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Fuera de plomo</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -55486,16 +55766,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>-58.485056</v>
+        <v>-58.494449</v>
       </c>
       <c r="N137" t="n">
-        <v>-34.555059</v>
+        <v>-34.650431</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>806981757</t>
+          <t>806981754</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -55505,7 +55785,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Rodo 5185</t>
+          <t>Corvalan 1195</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -55515,7 +55795,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>806981757</t>
+          <t>806981754</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -55530,7 +55810,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Fuera de plomo</t>
+          <t>Columna fuera de plomo</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -55540,7 +55820,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -55554,36 +55834,36 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>-58.494449</v>
+        <v>-58.495984</v>
       </c>
       <c r="N138" t="n">
-        <v>-34.650431</v>
+        <v>-34.649551</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>806981754</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Corvalan 1195</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>806981754</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -55598,7 +55878,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -55618,20 +55898,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>-58.495984</v>
+        <v>-58.467458</v>
       </c>
       <c r="N139" t="n">
-        <v>-34.649551</v>
+        <v>-34.537549</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044207</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -55641,7 +55921,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>Moldes 4601</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -55651,7 +55931,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044207</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -55686,40 +55966,40 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>-58.467458</v>
+        <v>-58.475622</v>
       </c>
       <c r="N140" t="n">
-        <v>-34.537549</v>
+        <v>-34.542008</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>807044207</t>
+          <t>807044212</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Moldes 4601</t>
+          <t>Av. Cabildo 4900</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>807044207</t>
+          <t>807044212</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -55758,36 +56038,36 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>-58.475622</v>
+        <v>-58.475021</v>
       </c>
       <c r="N141" t="n">
-        <v>-34.542008</v>
+        <v>-34.54009</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>807044212</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Av. Cabildo 4900</t>
+          <t>Del Barco Centenera 894</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>807044212</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -55822,30 +56102,30 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>-58.475021</v>
+        <v>-58.438744</v>
       </c>
       <c r="N142" t="n">
-        <v>-34.54009</v>
+        <v>-34.629929</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Del Barco Centenera 894</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -55855,7 +56135,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -55890,40 +56170,40 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>-58.438744</v>
+        <v>-58.469783</v>
       </c>
       <c r="N143" t="n">
-        <v>-34.629929</v>
+        <v>-34.599214</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -55938,7 +56218,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar o desmontar columna aparentemente en desuso</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -55948,7 +56228,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -55962,16 +56242,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N144" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044260</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -55981,17 +56261,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Jorge Luis Borges 2493</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044260</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -56006,7 +56286,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cambiar o desmontar columna aparentemente en desuso</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -56016,7 +56296,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -56026,20 +56306,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>-58.487144</v>
+        <v>-58.421011</v>
       </c>
       <c r="N145" t="n">
-        <v>-34.669078</v>
+        <v>-34.582138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>807044260</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -56049,17 +56329,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Jorge Luis Borges 2493</t>
+          <t>Echeandía 5779</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>807044260</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -56074,7 +56354,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -56084,7 +56364,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -56094,20 +56374,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>-58.421011</v>
+        <v>-58.487136</v>
       </c>
       <c r="N146" t="n">
-        <v>-34.582138</v>
+        <v>-34.667828</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -56117,17 +56397,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Echeandía 5779</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -56142,7 +56422,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -56166,16 +56446,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>-58.487136</v>
+        <v>-58.461167</v>
       </c>
       <c r="N147" t="n">
-        <v>-34.667828</v>
+        <v>-34.561613</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -56185,7 +56465,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -56195,7 +56475,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -56210,7 +56490,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -56234,36 +56514,36 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>-58.461167</v>
+        <v>-58.423551</v>
       </c>
       <c r="N148" t="n">
-        <v>-34.561613</v>
+        <v>-34.581258</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -56302,36 +56582,36 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>-58.423551</v>
+        <v>-58.470815</v>
       </c>
       <c r="N149" t="n">
-        <v>-34.581258</v>
+        <v>-34.664201</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -56346,7 +56626,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -56370,36 +56650,36 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>-58.470815</v>
+        <v>-58.49147</v>
       </c>
       <c r="N150" t="n">
-        <v>-34.664201</v>
+        <v>-34.55031</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -56412,11 +56692,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
           <t>1</t>
@@ -56438,26 +56714,26 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N151" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -56467,7 +56743,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -56480,7 +56756,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I152" t="inlineStr">
         <is>
           <t>1</t>
@@ -56502,16 +56782,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N152" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -56521,7 +56801,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -56531,7 +56811,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -56546,7 +56826,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -56570,36 +56850,36 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N153" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -56614,7 +56894,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -56634,81 +56914,13 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>-58.417348</v>
+        <v>-58.484729</v>
       </c>
       <c r="N154" t="n">
-        <v>-34.595467</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N155" t="n">
         <v>-34.574614</v>
       </c>
     </row>
@@ -60838,7 +61050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60921,27 +61133,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>2/6/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 3262</t>
+          <t>CONSTITUCION /ALT/ 1739</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>780027603</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -60954,7 +61166,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Direccion correcta 1736</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>0</t>
@@ -60964,36 +61180,36 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>-58.450827</v>
+        <v>-58.390269</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.578021</v>
+        <v>-34.625079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/6/2024</t>
+          <t>2/7/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONSTITUCION /ALT/ 1739</t>
+          <t>FRENCH /ALT/ 2380</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>780027603</t>
+          <t>780043028</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -61006,11 +61222,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Direccion correcta 1736</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>0</t>
@@ -61020,36 +61232,36 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.390269</v>
+        <v>-58.39894</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.625079</v>
+        <v>-34.591084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/7/2024</t>
+          <t>2/20/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FRENCH /ALT/ 2380</t>
+          <t>PICO /ALT/ 4686</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>780043028</t>
+          <t>780335892</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -61062,7 +61274,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>0</t>
@@ -61072,16 +61288,16 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.39894</v>
+        <v>-58.495436</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.591084</v>
+        <v>-34.55025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -61091,17 +61307,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 4686</t>
+          <t>ZABALA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>780335892</t>
+          <t>780340125</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -61116,7 +61332,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
+          <t>ZABALA 2836 - Reemplazar C114</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -61128,36 +61344,36 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.495436</v>
+        <v>-58.452298</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.55025</v>
+        <v>-34.572157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/20/2024</t>
+          <t>3/11/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ZABALA /ALT/ 2836</t>
+          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>780340125</t>
+          <t>781392461</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -61172,7 +61388,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ZABALA 2836 - Reemplazar C114</t>
+          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -61184,36 +61400,36 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.452298</v>
+        <v>-58.390198</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.572157</v>
+        <v>-34.637568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3/11/2024</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
+          <t>AGUERO /ALT/ 2310</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>781392461</t>
+          <t>784675618</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -61226,11 +61442,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>0</t>
@@ -61240,16 +61452,16 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.390198</v>
+        <v>-58.400047</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.637568</v>
+        <v>-34.586358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -61259,17 +61471,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AGUERO /ALT/ 2310</t>
+          <t>ANDONAEGUI /ALT/ 3696</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>784675618</t>
+          <t>784675639</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -61282,7 +61494,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Para cambiar columna fte al 3688</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>0</t>
@@ -61292,36 +61508,36 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.400047</v>
+        <v>-58.499823</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.586358</v>
+        <v>-34.563809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>6/11/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 3696</t>
+          <t>HUMBERTO PRIMO /ALT/ 1416</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>784675639</t>
+          <t>788000212</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -61336,7 +61552,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Para cambiar columna fte al 3688</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -61348,36 +61564,36 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.499823</v>
+        <v>-58.386058</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.563809</v>
+        <v>-34.621209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-100</t>
+          <t>-105</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/11/2024</t>
+          <t>6/24/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 1416</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>788000212</t>
+          <t>789151020</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -61392,7 +61608,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t>recambio de columna podrida en la base</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -61404,36 +61620,36 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.386058</v>
+        <v>-58.395465</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.621209</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>-109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6/24/2024</t>
+          <t>7/8/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>789151020</t>
+          <t>790175801</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -61448,7 +61664,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>recambio de columna podrida en la base</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -61460,36 +61676,36 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.395465</v>
+        <v>-58.394079</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.622784</v>
+        <v>-34.61051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7/8/2024</t>
+          <t>7/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
+          <t>CATAMARCA /ALT/ 1127</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>790175801</t>
+          <t>790298182</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -61516,26 +61732,26 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.394079</v>
+        <v>-58.404265</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.61051</v>
+        <v>-34.623154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7/12/2024</t>
+          <t>10/1/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CATAMARCA /ALT/ 1127</t>
+          <t>HUMBERTO PRIMO /ALT/ 2065</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -61545,7 +61761,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>790298182</t>
+          <t>797398473</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -61558,11 +61774,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Cambio de columna.-</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>0</t>
@@ -61572,26 +61784,26 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.404265</v>
+        <v>-58.395184</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.623154</v>
+        <v>-34.621686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-145</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/1/2024</t>
+          <t>10/8/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2065</t>
+          <t>HUMBERTO PRIMO /ALT/ 2849</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -61601,7 +61813,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797398473</t>
+          <t>797811738</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -61624,36 +61836,36 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.395184</v>
+        <v>-58.405077</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621686</v>
+        <v>-34.622822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/8/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2849</t>
+          <t>WARNES ,AV. /ALT/ 1605</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106583 - CHACARITA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>797811738</t>
+          <t>798984631</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -61676,16 +61888,16 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.405077</v>
+        <v>-58.458267</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.622822</v>
+        <v>-34.596836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-161</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -61695,17 +61907,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WARNES ,AV. /ALT/ 1605</t>
+          <t>URQUIZA 1692</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106583 - CHACARITA</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798984631</t>
+          <t>798985154</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -61728,36 +61940,36 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.458267</v>
+        <v>-58.408201</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.596836</v>
+        <v>-34.630629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>11/4/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>URQUIZA 1692</t>
+          <t>CESPEDES /ALT/ 3053</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798985154</t>
+          <t>799124270</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -61780,36 +61992,36 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.408201</v>
+        <v>-58.452409</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.630629</v>
+        <v>-34.574767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-172</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/4/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CESPEDES /ALT/ 3053</t>
+          <t>RINCON /ALT/ 847</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799124270</t>
+          <t>799539432</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -61822,7 +62034,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>0</t>
@@ -61832,16 +62048,16 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.452409</v>
+        <v>-58.396012</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574767</v>
+        <v>-34.619111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -61851,17 +62067,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 847</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539432</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -61876,7 +62092,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -61888,16 +62104,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.396012</v>
+        <v>-58.397535</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.619111</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -61907,7 +62123,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -61917,7 +62133,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -61932,7 +62148,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -61944,16 +62160,16 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.397535</v>
+        <v>-58.390647</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.588772</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -61963,17 +62179,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -61988,7 +62204,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -62000,16 +62216,16 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.390647</v>
+        <v>-58.412993</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.587717</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-185</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -62019,17 +62235,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>799539772</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -62044,7 +62260,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -62056,16 +62272,16 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.412993</v>
+        <v>-58.488262</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.641044</v>
+        <v>-34.631542</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -62075,17 +62291,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -62100,7 +62316,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -62112,16 +62328,16 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.488262</v>
+        <v>-58.477557</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.631542</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -62131,17 +62347,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -62156,28 +62372,28 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.477557</v>
+        <v>-58.448465</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.622154</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-188</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -62187,17 +62403,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>JUFRE /ALT/ 697</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799539833</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -62212,28 +62428,28 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Recambio de columna  - alt correcta 690</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.448465</v>
+        <v>-58.434727</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.575944</v>
+        <v>-34.593053</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-191</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -62243,17 +62459,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>799539921</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -62268,7 +62484,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Recambio de columna  - alt correcta 690</t>
+          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -62280,16 +62496,16 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.434727</v>
+        <v>-58.469143</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.593053</v>
+        <v>-34.610581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -62299,17 +62515,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -62324,7 +62540,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -62336,16 +62552,16 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.469143</v>
+        <v>-58.485782</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.610581</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -62355,7 +62571,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -62365,7 +62581,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -62380,28 +62596,28 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.485782</v>
+        <v>-58.486971</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.547305</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -62411,7 +62627,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -62421,7 +62637,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -62434,30 +62650,26 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Columna picada en base, informa el GCBA</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.486971</v>
+        <v>-58.500508</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.550135</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -62467,7 +62679,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -62477,7 +62689,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -62500,16 +62712,16 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.500508</v>
+        <v>-58.484555</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.563097</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -62519,7 +62731,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -62529,7 +62741,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -62542,7 +62754,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>0</t>
@@ -62552,16 +62768,16 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.484555</v>
+        <v>-58.493565</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.547242</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -62571,7 +62787,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -62581,7 +62797,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -62594,11 +62810,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -62608,16 +62820,16 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.493565</v>
+        <v>-58.480334</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.554439</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -62627,17 +62839,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -62650,7 +62862,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -62660,36 +62876,36 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.480334</v>
+        <v>-58.466988</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.556445</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -62702,11 +62918,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>0</t>
@@ -62716,36 +62928,36 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.466988</v>
+        <v>-58.471173</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.537094</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -62758,7 +62970,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>0</t>
@@ -62768,36 +62984,36 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>-58.471173</v>
+        <v>-58.395465</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.60704</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -62812,7 +63028,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -62824,36 +63040,36 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-58.395465</v>
+        <v>-58.439714</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.622784</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -62866,11 +63082,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Colocar columna medianera 213/15</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>0</t>
@@ -62880,16 +63092,16 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.439714</v>
+        <v>-58.413407</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.600565</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -62899,17 +63111,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -62922,7 +63134,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en base sin riego </t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>0</t>
@@ -62932,36 +63148,36 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-58.413407</v>
+        <v>-58.474354</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.602292</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -62976,48 +63192,60 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M39" t="n">
-        <v>-58.474354</v>
+        <v>-58.479695</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.629997</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>RINCON /ALT/ 645</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802269060</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -63030,11 +63258,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Pasante con priroidad</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
@@ -63056,16 +63280,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.479695</v>
+        <v>-58.396131</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.622867</v>
+        <v>-34.616584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -63075,17 +63299,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -63120,36 +63344,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.396131</v>
+        <v>-58.369292</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.616584</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -63175,7 +63399,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -63184,36 +63408,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.369292</v>
+        <v>-58.442667</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.631678</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -63226,7 +63450,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>1</t>
@@ -63239,7 +63467,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -63248,36 +63476,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.442667</v>
+        <v>-58.452317</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.597977</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -63290,11 +63518,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
@@ -63316,16 +63540,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.452317</v>
+        <v>-58.383027</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.567846</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -63335,17 +63559,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -63358,7 +63582,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>1</t>
@@ -63380,36 +63608,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.383027</v>
+        <v>-58.480871</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.618818</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -63424,7 +63652,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -63448,36 +63676,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.480871</v>
+        <v>-58.407076</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.616598</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DEAN FUNES /ALT/ 481</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>803039902</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -63492,7 +63720,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -63516,77 +63744,9 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.407076</v>
+        <v>-58.372751</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N48" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -31953,7 +31953,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -32616,7 +32616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36291,27 +36291,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -36326,7 +36326,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -36346,81 +36346,149 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.389598</v>
+        <v>-58.385887</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.645174</v>
+        <v>-34.621845</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>VELEZ SARSFIELD AV. 855</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807789683</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.389598</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.645174</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>-490</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>6/25/2025</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Luzuriaga 1273</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>807789692</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>PEBCOM</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M57" t="n">
         <v>-58.387569</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N57" t="n">
         <v>-34.649344</v>
       </c>
     </row>
@@ -36435,7 +36503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40390,27 +40458,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -40425,7 +40493,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -40445,40 +40513,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.385887</v>
+        <v>-58.425296</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.621845</v>
+        <v>-34.578706</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -40493,7 +40561,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -40517,77 +40585,9 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.578706</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6271</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ARGERICH 740</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>807789686</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>-58.474467</v>
-      </c>
-      <c r="N61" t="n">
         <v>-34.624161</v>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P396"/>
+  <dimension ref="A1:P394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21502,32 +21502,32 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -21547,7 +21547,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -21561,14 +21561,14 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>-58.49243</v>
+        <v>-58.51665</v>
       </c>
       <c r="N277" t="n">
-        <v>-34.551559</v>
+        <v>-34.596644</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -21580,32 +21580,32 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -21615,7 +21615,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -21625,40 +21625,40 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>-58.51665</v>
+        <v>-58.395063</v>
       </c>
       <c r="N278" t="n">
-        <v>-34.596644</v>
+        <v>-34.606257</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -21668,17 +21668,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -21703,12 +21703,12 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -21717,14 +21717,14 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N279" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
@@ -21736,7 +21736,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -21746,17 +21746,17 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -21795,14 +21795,14 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N280" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -21814,7 +21814,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -21824,22 +21824,22 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -21869,30 +21869,30 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>-58.421623</v>
+        <v>-58.513552</v>
       </c>
       <c r="N281" t="n">
-        <v>-34.614541</v>
+        <v>-34.579829</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -21927,7 +21927,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -21937,7 +21937,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21951,10 +21951,10 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N282" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -21970,17 +21970,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>CONDE 4618</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -21990,12 +21990,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926485</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -22005,7 +22005,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -22025,18 +22025,18 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>-58.513685</v>
+        <v>-58.483203</v>
       </c>
       <c r="N283" t="n">
-        <v>-34.579838</v>
+        <v>-34.545634</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
@@ -22048,32 +22048,32 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>806926499</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>Av. Rivadavia 6713</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926499</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -22083,7 +22083,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -22093,7 +22093,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -22107,51 +22107,51 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>-58.483203</v>
+        <v>-58.460019</v>
       </c>
       <c r="N284" t="n">
-        <v>-34.545634</v>
+        <v>-34.628014</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>806926499</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Av. Rivadavia 6713</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>806926499</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -22161,7 +22161,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -22171,7 +22171,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -22185,51 +22185,51 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>-58.460019</v>
+        <v>-58.481483</v>
       </c>
       <c r="N285" t="n">
-        <v>-34.628014</v>
+        <v>-34.544341</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -22239,7 +22239,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -22254,7 +22254,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -22263,26 +22263,26 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>-58.481483</v>
+        <v>-58.416562</v>
       </c>
       <c r="N286" t="n">
-        <v>-34.544341</v>
+        <v>-34.590589</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -22292,22 +22292,22 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -22332,7 +22332,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -22341,26 +22341,26 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>-58.416562</v>
+        <v>-58.464144</v>
       </c>
       <c r="N287" t="n">
-        <v>-34.590589</v>
+        <v>-34.541832</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -22370,7 +22370,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -22419,14 +22419,14 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>-58.464144</v>
+        <v>-58.485102</v>
       </c>
       <c r="N288" t="n">
-        <v>-34.541832</v>
+        <v>-34.572327</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
@@ -22438,7 +22438,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -22448,17 +22448,17 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -22473,7 +22473,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -22497,14 +22497,14 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>-58.485102</v>
+        <v>-58.501029</v>
       </c>
       <c r="N289" t="n">
-        <v>-34.572327</v>
+        <v>-34.673558</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
@@ -22516,7 +22516,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -22526,7 +22526,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -22536,7 +22536,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -22571,14 +22571,14 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>-58.501029</v>
+        <v>-58.501565</v>
       </c>
       <c r="N290" t="n">
-        <v>-34.673558</v>
+        <v>-34.673845</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -22604,22 +22604,22 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -22629,7 +22629,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -22649,30 +22649,30 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>-58.501565</v>
+        <v>-58.429972</v>
       </c>
       <c r="N291" t="n">
-        <v>-34.673845</v>
+        <v>-34.632042</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -22682,17 +22682,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -22707,7 +22707,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -22731,26 +22731,26 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N292" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -22760,22 +22760,22 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -22809,26 +22809,26 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>-58.47888</v>
+        <v>-58.434761</v>
       </c>
       <c r="N293" t="n">
-        <v>-34.571108</v>
+        <v>-34.598381</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -22838,22 +22838,22 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -22863,7 +22863,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -22887,14 +22887,14 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>-58.434761</v>
+        <v>-58.443196</v>
       </c>
       <c r="N294" t="n">
-        <v>-34.598381</v>
+        <v>-34.618534</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -22906,7 +22906,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -22916,22 +22916,22 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -22941,7 +22941,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -22965,14 +22965,14 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>-58.443196</v>
+        <v>-58.433867</v>
       </c>
       <c r="N295" t="n">
-        <v>-34.618534</v>
+        <v>-34.599149</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -22984,7 +22984,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -22994,17 +22994,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -23019,7 +23019,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -23039,30 +23039,30 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>-58.433867</v>
+        <v>-58.464177</v>
       </c>
       <c r="N296" t="n">
-        <v>-34.599149</v>
+        <v>-34.558239</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -23072,17 +23072,17 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -23117,30 +23117,30 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N297" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -23150,17 +23150,17 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -23195,30 +23195,30 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>-58.412302</v>
+        <v>-58.511375</v>
       </c>
       <c r="N298" t="n">
-        <v>-34.59301</v>
+        <v>-34.600017</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -23228,22 +23228,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -23268,35 +23268,35 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>-58.511375</v>
+        <v>-58.422268</v>
       </c>
       <c r="N299" t="n">
-        <v>-34.600017</v>
+        <v>-34.627754</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -23306,17 +23306,17 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -23346,7 +23346,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -23355,14 +23355,14 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N300" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -23374,7 +23374,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -23384,22 +23384,22 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -23409,7 +23409,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -23424,7 +23424,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -23433,26 +23433,26 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>-58.423148</v>
+        <v>-58.450724</v>
       </c>
       <c r="N301" t="n">
-        <v>-34.576964</v>
+        <v>-34.567086</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -23462,7 +23462,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -23472,7 +23472,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -23511,14 +23511,14 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N302" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -23530,7 +23530,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -23540,22 +23540,22 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -23585,18 +23585,18 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>-58.46522</v>
+        <v>-58.51232</v>
       </c>
       <c r="N303" t="n">
-        <v>-34.556786</v>
+        <v>-34.595637</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
@@ -23608,32 +23608,32 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -23663,18 +23663,18 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>-58.51232</v>
+        <v>-58.480224</v>
       </c>
       <c r="N304" t="n">
-        <v>-34.595637</v>
+        <v>-34.544229</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -23686,7 +23686,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -23721,7 +23721,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -23741,18 +23741,18 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N305" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -23764,17 +23764,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -23784,12 +23784,12 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -23799,12 +23799,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -23823,14 +23823,14 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>-58.476106</v>
+        <v>-58.485056</v>
       </c>
       <c r="N306" t="n">
-        <v>-34.568373</v>
+        <v>-34.555059</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -23842,32 +23842,32 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>806981757</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Rodo 5185</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806981757</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -23877,12 +23877,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Fuera de plomo</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -23901,14 +23901,14 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>-58.485056</v>
+        <v>-58.494449</v>
       </c>
       <c r="N307" t="n">
-        <v>-34.555059</v>
+        <v>-34.650431</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -23920,7 +23920,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>806981757</t>
+          <t>806981754</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Rodo 5185</t>
+          <t>Corvalan 1195</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -23940,7 +23940,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>806981757</t>
+          <t>806981754</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -23955,7 +23955,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Fuera de plomo</t>
+          <t>Columna fuera de plomo</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -23979,10 +23979,10 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>-58.494449</v>
+        <v>-58.495984</v>
       </c>
       <c r="N308" t="n">
-        <v>-34.650431</v>
+        <v>-34.649551</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -23998,32 +23998,32 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>806981754</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Corvalan 1195</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>806981754</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -24033,7 +24033,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -24043,7 +24043,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -24057,14 +24057,14 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>-58.495984</v>
+        <v>-58.483104</v>
       </c>
       <c r="N309" t="n">
-        <v>-34.649551</v>
+        <v>-34.572353</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -24076,27 +24076,27 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -24111,7 +24111,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -24131,14 +24131,14 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N310" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -24154,32 +24154,32 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -24189,7 +24189,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -24213,26 +24213,26 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>-58.483927</v>
+        <v>-58.41193</v>
       </c>
       <c r="N311" t="n">
-        <v>-34.570689</v>
+        <v>-34.626628</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -24242,22 +24242,22 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -24287,30 +24287,30 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>-58.41193</v>
+        <v>-58.501766</v>
       </c>
       <c r="N312" t="n">
-        <v>-34.626628</v>
+        <v>-34.574369</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -24320,17 +24320,17 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -24369,26 +24369,26 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>-58.501766</v>
+        <v>-58.467789</v>
       </c>
       <c r="N313" t="n">
-        <v>-34.574369</v>
+        <v>-34.68463</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -24398,22 +24398,22 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -24423,7 +24423,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -24443,30 +24443,30 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>-58.467789</v>
+        <v>-58.468425</v>
       </c>
       <c r="N314" t="n">
-        <v>-34.68463</v>
+        <v>-34.54124</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -24486,12 +24486,12 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -24501,7 +24501,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -24511,7 +24511,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -24521,14 +24521,14 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>-58.468425</v>
+        <v>-58.467458</v>
       </c>
       <c r="N315" t="n">
-        <v>-34.54124</v>
+        <v>-34.537549</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044207</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -24554,7 +24554,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>Moldes 4601</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -24564,7 +24564,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044207</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -24599,14 +24599,14 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>-58.467458</v>
+        <v>-58.475622</v>
       </c>
       <c r="N316" t="n">
-        <v>-34.537549</v>
+        <v>-34.542008</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -24622,27 +24622,27 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>807044207</t>
+          <t>807044212</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Moldes 4601</t>
+          <t>Av. Cabildo 4900</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>807044207</t>
+          <t>807044212</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -24681,10 +24681,10 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>-58.475622</v>
+        <v>-58.475021</v>
       </c>
       <c r="N317" t="n">
-        <v>-34.542008</v>
+        <v>-34.54009</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -24700,27 +24700,27 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>807044212</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Av. Cabildo 4900</t>
+          <t>Del Barco Centenera 894</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>807044212</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -24755,40 +24755,40 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>-58.475021</v>
+        <v>-58.438744</v>
       </c>
       <c r="N318" t="n">
-        <v>-34.54009</v>
+        <v>-34.629929</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Del Barco Centenera 894</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -24798,7 +24798,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -24833,50 +24833,50 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>-58.438744</v>
+        <v>-58.469783</v>
       </c>
       <c r="N319" t="n">
-        <v>-34.629929</v>
+        <v>-34.599214</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -24891,7 +24891,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar o desmontar columna aparentemente en desuso</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -24901,7 +24901,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -24915,26 +24915,26 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N320" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044260</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -24944,17 +24944,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Jorge Luis Borges 2493</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044260</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -24969,7 +24969,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Cambiar o desmontar columna aparentemente en desuso</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -24979,7 +24979,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -24989,18 +24989,18 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>-58.487144</v>
+        <v>-58.421011</v>
       </c>
       <c r="N321" t="n">
-        <v>-34.669078</v>
+        <v>-34.582138</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
@@ -25012,7 +25012,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>807044260</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -25022,17 +25022,17 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Jorge Luis Borges 2493</t>
+          <t>Echeandía 5779</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>807044260</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -25057,7 +25057,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -25067,18 +25067,18 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>-58.421011</v>
+        <v>-58.487136</v>
       </c>
       <c r="N322" t="n">
-        <v>-34.582138</v>
+        <v>-34.667828</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
@@ -25090,7 +25090,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -25100,22 +25100,22 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Echeandía 5779</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -25125,7 +25125,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -25149,26 +25149,26 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>-58.487136</v>
+        <v>-58.461167</v>
       </c>
       <c r="N323" t="n">
-        <v>-34.667828</v>
+        <v>-34.561613</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -25178,7 +25178,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -25188,12 +25188,12 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -25203,7 +25203,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -25218,7 +25218,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -25227,46 +25227,46 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>-58.461167</v>
+        <v>-58.423551</v>
       </c>
       <c r="N324" t="n">
-        <v>-34.561613</v>
+        <v>-34.581258</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -25296,7 +25296,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -25305,14 +25305,14 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N325" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -25324,7 +25324,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -25334,7 +25334,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -25344,7 +25344,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -25359,7 +25359,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -25379,14 +25379,14 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N326" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -25412,17 +25412,17 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -25437,7 +25437,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -25457,14 +25457,14 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N327" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -25490,7 +25490,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PAVON AV. 3665</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -25500,12 +25500,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129382</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -25515,7 +25515,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -25525,7 +25525,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -25535,14 +25535,14 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>-58.4212</v>
+        <v>-58.416352</v>
       </c>
       <c r="N328" t="n">
-        <v>-34.623575</v>
+        <v>-34.630143</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -25558,27 +25558,27 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>5970</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>PAVON AV. 3665</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>807129382</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -25603,7 +25603,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -25613,18 +25613,18 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>-58.416352</v>
+        <v>-58.396424</v>
       </c>
       <c r="N329" t="n">
-        <v>-34.630143</v>
+        <v>-34.602218</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -25636,7 +25636,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -25646,7 +25646,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -25671,7 +25671,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -25695,14 +25695,14 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N330" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
@@ -25714,7 +25714,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -25724,17 +25724,17 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -25773,14 +25773,14 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N331" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
@@ -25792,7 +25792,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -25802,17 +25802,17 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -25827,7 +25827,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -25851,14 +25851,14 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N332" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -25870,27 +25870,27 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -25905,7 +25905,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -25929,14 +25929,14 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>-58.459566</v>
+        <v>-58.362579</v>
       </c>
       <c r="N333" t="n">
-        <v>-34.634615</v>
+        <v>-34.635096</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -25948,7 +25948,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -25958,22 +25958,22 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -26003,30 +26003,30 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N334" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-465</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -26036,22 +26036,22 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>General Enrique Martinez 350</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168181</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -26071,7 +26071,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -26081,30 +26081,30 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>-58.487371</v>
+        <v>-58.448034</v>
       </c>
       <c r="N335" t="n">
-        <v>-34.640099</v>
+        <v>-34.579933</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>-465</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -26114,7 +26114,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 350</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -26124,7 +26124,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>807168181</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -26163,10 +26163,10 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>-58.448034</v>
+        <v>-58.445558</v>
       </c>
       <c r="N336" t="n">
-        <v>-34.579933</v>
+        <v>-34.581191</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -26192,7 +26192,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -26202,7 +26202,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -26241,10 +26241,10 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>-58.445558</v>
+        <v>-58.446125</v>
       </c>
       <c r="N337" t="n">
-        <v>-34.581191</v>
+        <v>-34.580819</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -26315,14 +26315,14 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N338" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -26348,17 +26348,17 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -26393,18 +26393,18 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N339" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -26416,7 +26416,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -26426,22 +26426,22 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -26451,7 +26451,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -26475,14 +26475,14 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>-58.461271</v>
+        <v>-58.425845</v>
       </c>
       <c r="N340" t="n">
-        <v>-34.625615</v>
+        <v>-34.616562</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
@@ -26494,7 +26494,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -26504,7 +26504,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -26514,7 +26514,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -26529,7 +26529,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -26552,52 +26552,40 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>-58.425845</v>
-      </c>
-      <c r="N341" t="n">
-        <v>-34.616562</v>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P341" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -26607,7 +26595,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -26630,25 +26618,37 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr"/>
-      <c r="N342" t="inlineStr"/>
-      <c r="O342" t="inlineStr"/>
-      <c r="P342" t="inlineStr"/>
+      <c r="M342" t="n">
+        <v>-58.470815</v>
+      </c>
+      <c r="N342" t="n">
+        <v>-34.664201</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/6/2025</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>Correa 3812</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -26658,12 +26658,12 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807208289</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base, informa GCBA</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -26697,46 +26697,46 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>-58.470815</v>
+        <v>-58.486716</v>
       </c>
       <c r="N343" t="n">
-        <v>-34.664201</v>
+        <v>-34.550004</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -26775,14 +26775,14 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>-58.486716</v>
+        <v>-58.458518</v>
       </c>
       <c r="N344" t="n">
-        <v>-34.550004</v>
+        <v>-34.564693</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
@@ -26794,7 +26794,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -26804,22 +26804,22 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -26829,7 +26829,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -26853,26 +26853,26 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>-58.458518</v>
+        <v>-58.416477</v>
       </c>
       <c r="N345" t="n">
-        <v>-34.564693</v>
+        <v>-34.61303</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -26882,7 +26882,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -26892,7 +26892,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -26931,10 +26931,10 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N346" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -26960,7 +26960,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -26970,7 +26970,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -26985,7 +26985,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N347" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -27048,7 +27048,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -27063,7 +27063,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -27087,10 +27087,10 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N348" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -27116,22 +27116,22 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -27141,7 +27141,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -27165,14 +27165,14 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>-58.425478</v>
+        <v>-58.436298</v>
       </c>
       <c r="N349" t="n">
-        <v>-34.601865</v>
+        <v>-34.578972</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
@@ -27184,17 +27184,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6095</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>VOLTAIRE 5985</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -27204,12 +27204,12 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807331684</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -27219,7 +27219,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -27239,14 +27239,14 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>-58.436298</v>
+        <v>-58.438022</v>
       </c>
       <c r="N350" t="n">
-        <v>-34.578972</v>
+        <v>-34.579157</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -27272,17 +27272,17 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>VOLTAIRE 5985</t>
+          <t>DUMONT, SANTOS 3682</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>807331684</t>
+          <t>807331703</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -27317,30 +27317,30 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>-58.438022</v>
+        <v>-58.448339</v>
       </c>
       <c r="N351" t="n">
-        <v>-34.579157</v>
+        <v>-34.585091</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -27350,17 +27350,17 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3682</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>807331703</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -27399,26 +27399,26 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>-58.448339</v>
+        <v>-58.401624</v>
       </c>
       <c r="N352" t="n">
-        <v>-34.585091</v>
+        <v>-34.612001</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -27428,22 +27428,22 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -27477,10 +27477,10 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>-58.401624</v>
+        <v>-58.440448</v>
       </c>
       <c r="N353" t="n">
-        <v>-34.612001</v>
+        <v>-34.611223</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -27496,32 +27496,32 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/10/2025</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>CIUDAD DE LA PAZ 3358</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807458266</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -27541,7 +27541,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -27555,51 +27555,51 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>-58.440448</v>
+        <v>-58.467682</v>
       </c>
       <c r="N354" t="n">
-        <v>-34.611223</v>
+        <v>-34.551767</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>6/10/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 3358</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>807458266</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -27633,14 +27633,14 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>-58.467682</v>
+        <v>-58.480925</v>
       </c>
       <c r="N355" t="n">
-        <v>-34.551767</v>
+        <v>-34.585471</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -27652,7 +27652,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -27662,7 +27662,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -27672,7 +27672,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -27711,10 +27711,10 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N356" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -27740,17 +27740,17 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -27789,10 +27789,10 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N357" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
@@ -27808,32 +27808,32 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -27863,55 +27863,55 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>-58.481942</v>
+        <v>-58.426431</v>
       </c>
       <c r="N358" t="n">
-        <v>-34.602989</v>
+        <v>-34.627954</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -27921,7 +27921,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -27941,55 +27941,55 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>-58.426431</v>
+        <v>-58.517389</v>
       </c>
       <c r="N359" t="n">
-        <v>-34.627954</v>
+        <v>-34.593541</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -27999,7 +27999,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -28019,30 +28019,30 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>-58.517389</v>
+        <v>-58.422775</v>
       </c>
       <c r="N360" t="n">
-        <v>-34.593541</v>
+        <v>-34.604135</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -28052,22 +28052,22 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -28077,7 +28077,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -28087,7 +28087,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -28101,51 +28101,51 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>-58.422775</v>
+        <v>-58.49147</v>
       </c>
       <c r="N361" t="n">
-        <v>-34.604135</v>
+        <v>-34.55031</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -28155,7 +28155,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -28175,18 +28175,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>-58.49147</v>
+        <v>-58.497698</v>
       </c>
       <c r="N362" t="n">
-        <v>-34.55031</v>
+        <v>-34.612038</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -28198,7 +28198,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -28208,22 +28208,22 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -28231,11 +28231,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
           <t>1</t>
@@ -28243,7 +28239,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -28253,30 +28249,30 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>-58.497698</v>
+        <v>-58.405761</v>
       </c>
       <c r="N363" t="n">
-        <v>-34.612038</v>
+        <v>-34.582476</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -28286,22 +28282,22 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -28309,7 +28305,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+        </is>
+      </c>
       <c r="I364" t="inlineStr">
         <is>
           <t>1</t>
@@ -28327,30 +28327,30 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>-58.405761</v>
+        <v>-58.469257</v>
       </c>
       <c r="N364" t="n">
-        <v>-34.582476</v>
+        <v>-34.542018</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -28360,22 +28360,22 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -28405,40 +28405,40 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>-58.469257</v>
+        <v>-58.409579</v>
       </c>
       <c r="N365" t="n">
-        <v>-34.542018</v>
+        <v>-34.581134</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -28448,12 +28448,12 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -28487,10 +28487,10 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>-58.409579</v>
+        <v>-58.432241</v>
       </c>
       <c r="N366" t="n">
-        <v>-34.581134</v>
+        <v>-34.56642</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -28516,7 +28516,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -28526,7 +28526,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -28541,7 +28541,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -28565,10 +28565,10 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
@@ -28584,32 +28584,32 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28619,7 +28619,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -28629,7 +28629,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -28639,14 +28639,14 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.417348</v>
+        <v>-58.44848</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.595467</v>
+        <v>-34.581338</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -28672,7 +28672,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -28682,7 +28682,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -28697,7 +28697,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -28721,26 +28721,26 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -28750,22 +28750,22 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -28785,7 +28785,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -28799,26 +28799,26 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.448496</v>
+        <v>-58.472311</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.58182</v>
+        <v>-34.654867</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -28828,22 +28828,22 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -28873,18 +28873,18 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.472311</v>
+        <v>-58.395688</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.654867</v>
+        <v>-34.592023</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -28896,7 +28896,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28906,22 +28906,22 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -28931,7 +28931,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -28955,14 +28955,14 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.395688</v>
+        <v>-58.444181</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.592023</v>
+        <v>-34.621883</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -28974,7 +28974,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -28984,22 +28984,22 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -29009,7 +29009,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -29033,14 +29033,14 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>-58.444181</v>
+        <v>-58.402745</v>
       </c>
       <c r="N373" t="n">
-        <v>-34.621883</v>
+        <v>-34.627478</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
@@ -29052,7 +29052,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -29062,7 +29062,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -29072,12 +29072,12 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -29087,7 +29087,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -29102,7 +29102,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -29111,14 +29111,14 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>-58.402745</v>
+        <v>-58.400169</v>
       </c>
       <c r="N374" t="n">
-        <v>-34.627478</v>
+        <v>-34.617784</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -29130,7 +29130,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -29140,22 +29140,22 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -29165,7 +29165,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -29189,14 +29189,14 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>-58.400169</v>
+        <v>-58.422315</v>
       </c>
       <c r="N375" t="n">
-        <v>-34.617784</v>
+        <v>-34.576988</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -29208,7 +29208,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -29218,7 +29218,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -29243,7 +29243,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -29263,14 +29263,14 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N376" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -29296,17 +29296,17 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -29321,7 +29321,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -29341,14 +29341,14 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N377" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -29374,22 +29374,22 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>San Jose 1157</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763095</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -29419,18 +29419,18 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>-58.432722</v>
+        <v>-58.385887</v>
       </c>
       <c r="N378" t="n">
-        <v>-34.572371</v>
+        <v>-34.621845</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -29442,7 +29442,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -29452,39 +29452,39 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>807763098</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>807763095</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J379" t="inlineStr">
         <is>
           <t>Cambio</t>
@@ -29497,30 +29497,30 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>-58.385887</v>
+        <v>-58.450113</v>
       </c>
       <c r="N379" t="n">
-        <v>-34.621845</v>
+        <v>-34.574534</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -29530,17 +29530,17 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -29555,7 +29555,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -29575,18 +29575,18 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N380" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
@@ -29598,32 +29598,32 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -29633,7 +29633,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -29653,55 +29653,55 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>-58.484729</v>
+        <v>-58.425296</v>
       </c>
       <c r="N381" t="n">
-        <v>-34.574614</v>
+        <v>-34.578706</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -29711,7 +29711,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -29735,14 +29735,14 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>-58.425296</v>
+        <v>-58.389598</v>
       </c>
       <c r="N382" t="n">
-        <v>-34.578706</v>
+        <v>-34.645174</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -29754,7 +29754,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -29764,22 +29764,22 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -29789,7 +29789,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -29813,51 +29813,51 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>-58.389598</v>
+        <v>-58.474467</v>
       </c>
       <c r="N383" t="n">
-        <v>-34.645174</v>
+        <v>-34.624161</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -29891,51 +29891,51 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>-58.474467</v>
+        <v>-58.387569</v>
       </c>
       <c r="N384" t="n">
-        <v>-34.624161</v>
+        <v>-34.649344</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -29965,30 +29965,30 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>-58.387569</v>
+        <v>-58.471717</v>
       </c>
       <c r="N385" t="n">
-        <v>-34.649344</v>
+        <v>-34.649961</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -29998,17 +29998,17 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -30023,7 +30023,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -30033,7 +30033,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -30043,18 +30043,18 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>-58.471717</v>
+        <v>-58.452636</v>
       </c>
       <c r="N386" t="n">
-        <v>-34.649961</v>
+        <v>-34.558607</v>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -30066,7 +30066,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -30076,22 +30076,22 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -30111,7 +30111,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -30121,14 +30121,14 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>-58.452636</v>
+        <v>-58.479742</v>
       </c>
       <c r="N387" t="n">
-        <v>-34.558607</v>
+        <v>-34.546292</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
@@ -30144,32 +30144,32 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -30179,7 +30179,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -30189,7 +30189,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -30199,50 +30199,50 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>-58.479742</v>
+        <v>-58.432644</v>
       </c>
       <c r="N388" t="n">
-        <v>-34.546292</v>
+        <v>-34.595434</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -30257,7 +30257,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -30267,12 +30267,12 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -30281,14 +30281,14 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N389" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
@@ -30300,7 +30300,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6279</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -30310,17 +30310,17 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>CORREA 3850</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>807847111</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -30359,46 +30359,46 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>-58.486971</v>
+        <v>-58.436808</v>
       </c>
       <c r="N390" t="n">
-        <v>-34.550135</v>
+        <v>-34.577464</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -30428,7 +30428,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -30437,14 +30437,14 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N391" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
@@ -30456,32 +30456,32 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -30491,7 +30491,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -30515,14 +30515,14 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>-58.436808</v>
+        <v>-58.459566</v>
       </c>
       <c r="N392" t="n">
-        <v>-34.577464</v>
+        <v>-34.634615</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P392" t="inlineStr">
@@ -30534,7 +30534,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -30544,17 +30544,17 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -30569,7 +30569,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -30593,10 +30593,10 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N393" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -30612,32 +30612,28 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>-499</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>La Rioja 1770</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>807877145</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -30647,7 +30643,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -30671,175 +30667,19 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>-58.459566</v>
+        <v>-58.406225</v>
       </c>
       <c r="N394" t="n">
-        <v>-34.634615</v>
+        <v>-34.631314</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
         <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>6308</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>7/1/2025</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>Guayaquil 637</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>807896343</t>
-        </is>
-      </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M395" t="n">
-        <v>-58.437378</v>
-      </c>
-      <c r="N395" t="n">
-        <v>-34.62116</v>
-      </c>
-      <c r="O395" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P395" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>-497</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>7/2/2025</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>Machain 4556</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>807918340</t>
-        </is>
-      </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="I396" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J396" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M396" t="n">
-        <v>-58.492573</v>
-      </c>
-      <c r="N396" t="n">
-        <v>-34.551355</v>
-      </c>
-      <c r="O396" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P396" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -30854,7 +30694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35217,6 +35057,80 @@
         </is>
       </c>
       <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-499</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>La Rioja 1770</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.406225</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.631314</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -40860,7 +40774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43207,17 +43121,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -43227,7 +43141,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -43242,7 +43156,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -43252,7 +43166,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -43262,18 +43176,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -43285,7 +43199,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -43295,7 +43209,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -43305,7 +43219,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -43320,7 +43234,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -43330,7 +43244,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -43344,10 +43258,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -43363,17 +43277,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -43383,7 +43297,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -43398,7 +43312,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -43408,7 +43322,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -43418,18 +43332,18 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.513685</v>
+        <v>-58.480224</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579838</v>
+        <v>-34.544229</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -43441,7 +43355,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -43451,7 +43365,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -43461,7 +43375,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -43476,7 +43390,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -43496,18 +43410,18 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -43519,27 +43433,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -43554,7 +43468,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -43564,7 +43478,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -43574,18 +43488,18 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -43597,27 +43511,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -43632,7 +43546,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -43642,7 +43556,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -43652,50 +43566,50 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -43734,26 +43648,26 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -43763,7 +43677,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -43773,7 +43687,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -43812,10 +43726,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -43831,7 +43745,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -43841,17 +43755,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -43890,10 +43804,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -43909,17 +43823,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -43929,7 +43843,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -43944,7 +43858,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -43964,14 +43878,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -43987,27 +43901,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -44022,7 +43936,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -44042,40 +43956,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -44085,7 +43999,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -44100,7 +44014,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -44124,10 +44038,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -44143,7 +44057,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -44153,7 +44067,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -44163,7 +44077,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -44178,7 +44092,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -44198,14 +44112,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -44221,7 +44135,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -44231,17 +44145,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -44256,7 +44170,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -44276,14 +44190,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -44299,27 +44213,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -44334,7 +44248,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -44344,7 +44258,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -44354,50 +44268,50 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.572371</v>
+        <v>-34.546292</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -44412,7 +44326,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -44422,7 +44336,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -44432,257 +44346,23 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.479742</v>
+        <v>-58.436808</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.546292</v>
+        <v>-34.577464</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>6279</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CORREA 3850</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>807847111</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>-58.486971</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-34.550135</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6295</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SOLER 6017</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>807851636</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.436808</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-34.577464</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-497</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7/2/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Machain 4556</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>807918340</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.492573</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.551355</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -30326,7 +30326,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -40159,7 +40159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43910,7 +43910,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -43920,7 +43920,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -43930,7 +43930,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -43945,7 +43945,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -43969,10 +43969,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.413941</v>
+        <v>-58.421822</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.57698</v>
+        <v>-34.58645</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -43998,7 +43998,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -44008,7 +44008,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -44047,10 +44047,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.421822</v>
+        <v>-58.414507</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.58645</v>
+        <v>-34.585377</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -44076,7 +44076,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -44086,7 +44086,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -44125,10 +44125,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.414507</v>
+        <v>-58.422084</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.585377</v>
+        <v>-34.58625</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -44154,7 +44154,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -44164,7 +44164,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -44203,10 +44203,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.422084</v>
+        <v>-58.422931</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.58625</v>
+        <v>-34.585597</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -44214,84 +44214,6 @@
         </is>
       </c>
       <c r="P52" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>6337</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PARAGUAY 4383</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>807965926</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>-58.422931</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-34.585597</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -49673,7 +49595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58934,6 +58856,84 @@
         </is>
       </c>
       <c r="P119" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>REPUBLICA DE LA INDIA 3106</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>807965776</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Picada e inclinada</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>-58.413941</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-34.57698</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P394"/>
+  <dimension ref="A1:P395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30683,6 +30683,84 @@
         </is>
       </c>
       <c r="P394" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>-501</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Cabello 3107</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>807971967</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M395" t="n">
+        <v>-58.405749</v>
+      </c>
+      <c r="N395" t="n">
+        <v>-34.58224</v>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -49595,7 +49673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58934,6 +59012,84 @@
         </is>
       </c>
       <c r="P120" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>-501</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cabello 3107</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>807971967</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>-58.405749</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-34.58224</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -14,7 +14,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P387"/>
+  <dimension ref="A1:P388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30067,7 +30066,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>-1001</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -30077,22 +30076,22 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Paroissien 3960</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>999999999</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Propio</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -30100,7 +30099,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr"/>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
       <c r="I387" t="inlineStr">
         <is>
           <t>1</t>
@@ -30108,35 +30111,89 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="inlineStr"/>
+      <c r="O387" t="inlineStr"/>
+      <c r="P387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>-502</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Tagle 2562</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>808036198</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L387" t="inlineStr">
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M387" t="n">
-        <v>-58.484584</v>
-      </c>
-      <c r="N387" t="n">
-        <v>-34.553146</v>
-      </c>
-      <c r="O387" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P387" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="inlineStr"/>
+      <c r="O388" t="inlineStr"/>
+      <c r="P388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33904,7 +33961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39753,6 +39810,138 @@
           <t>Capital Sur</t>
         </is>
       </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>6357</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BACACAY 3088</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>808036196</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>-502</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tagle 2562</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>808036198</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -60289,179 +60478,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Caso</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>F. De Reclamo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comuna</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Proveedor Asignado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Attachments</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de tarea</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Equipo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Elemento</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_X</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_Y</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Zona</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>-1001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7/7/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Paroissien 3960</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>999999999</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Propio</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>-58.484584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-34.553146</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P388"/>
+  <dimension ref="A1:P394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30124,10 +30124,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr"/>
-      <c r="N387" t="inlineStr"/>
-      <c r="O387" t="inlineStr"/>
-      <c r="P387" t="inlineStr"/>
+      <c r="M387" t="n">
+        <v>-58.473179</v>
+      </c>
+      <c r="N387" t="n">
+        <v>-34.629138</v>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -30190,10 +30202,490 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr"/>
-      <c r="N388" t="inlineStr"/>
-      <c r="O388" t="inlineStr"/>
-      <c r="P388" t="inlineStr"/>
+      <c r="M388" t="n">
+        <v>-58.400188</v>
+      </c>
+      <c r="N388" t="n">
+        <v>-34.583882</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>6362</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ARIAS 3422</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>808099435</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Poste inclinado mal ubicado</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M389" t="n">
+        <v>-58.483313</v>
+      </c>
+      <c r="N389" t="n">
+        <v>-34.54605</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>MOLDES 3730</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>808099415</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M390" t="n">
+        <v>-58.47192</v>
+      </c>
+      <c r="N390" t="n">
+        <v>-34.549398</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>AVELLANEDA 4500</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>808099405</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M391" t="n">
+        <v>-58.489219</v>
+      </c>
+      <c r="N391" t="n">
+        <v>-34.632475</v>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>BOYACA 712</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>808099366</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M392" t="n">
+        <v>-58.461858</v>
+      </c>
+      <c r="N392" t="n">
+        <v>-34.619348</v>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>GUARDIA VIEJA 4377</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>808099347</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M393" t="n">
+        <v>-58.426322</v>
+      </c>
+      <c r="N393" t="n">
+        <v>-34.600097</v>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>808099320</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M394" t="n">
+        <v>-58.448523</v>
+      </c>
+      <c r="N394" t="n">
+        <v>-34.62452</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30206,7 +30698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33945,6 +34437,84 @@
         </is>
       </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BOYACA 712</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>808099366</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.461858</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.619348</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -33961,7 +34531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39872,10 +40442,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>-58.473179</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.629138</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -39938,10 +40520,178 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>-58.400188</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-34.583882</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GUARDIA VIEJA 4377</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>808099347</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>-58.426322</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-34.600097</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>808099320</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.448523</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.62452</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -39954,7 +40704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44011,6 +44761,162 @@
       <c r="P52" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6362</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ARIAS 3422</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>808099435</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Poste inclinado mal ubicado</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.483313</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.54605</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MOLDES 3730</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>808099415</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-58.47192</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.549398</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -49390,7 +50296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58029,6 +58935,84 @@
       <c r="P111" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>AVELLANEDA 4500</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>808099405</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>-58.489219</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-34.632475</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P430"/>
+  <dimension ref="A1:P429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -10184,7 +10184,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -16954,7 +16954,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -17266,7 +17266,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -17422,7 +17422,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -17500,7 +17500,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -18514,7 +18514,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -18592,7 +18592,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -19450,7 +19450,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -19606,7 +19606,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -20932,7 +20932,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -21790,7 +21790,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -21946,7 +21946,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -31431,7 +31431,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -31441,17 +31441,17 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -31466,7 +31466,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -31476,7 +31476,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -31486,18 +31486,18 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>-58.471717</v>
+        <v>-58.452636</v>
       </c>
       <c r="N405" t="n">
-        <v>-34.649961</v>
+        <v>-34.558607</v>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P405" t="inlineStr">
@@ -31509,7 +31509,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -31519,22 +31519,22 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -31544,7 +31544,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -31554,7 +31554,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -31564,14 +31564,14 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>-58.452636</v>
+        <v>-58.479742</v>
       </c>
       <c r="N406" t="n">
-        <v>-34.558607</v>
+        <v>-34.546292</v>
       </c>
       <c r="O406" t="inlineStr">
         <is>
@@ -31587,32 +31587,32 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -31622,7 +31622,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -31632,7 +31632,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -31642,50 +31642,50 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>-58.479742</v>
+        <v>-58.432644</v>
       </c>
       <c r="N407" t="n">
-        <v>-34.546292</v>
+        <v>-34.595434</v>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P407" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -31700,7 +31700,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -31710,12 +31710,12 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -31724,14 +31724,14 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N408" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
@@ -31743,7 +31743,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -31753,22 +31753,22 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -31778,7 +31778,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -31802,14 +31802,14 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>-58.401827</v>
+        <v>-58.436808</v>
       </c>
       <c r="N409" t="n">
-        <v>-34.617667</v>
+        <v>-34.577464</v>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P409" t="inlineStr">
@@ -31821,32 +31821,32 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -31880,14 +31880,14 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>-58.436808</v>
+        <v>-58.450359</v>
       </c>
       <c r="N410" t="n">
-        <v>-34.577464</v>
+        <v>-34.643582</v>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P410" t="inlineStr">
@@ -31899,7 +31899,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -31909,7 +31909,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -31958,10 +31958,10 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>-58.450359</v>
+        <v>-58.459566</v>
       </c>
       <c r="N411" t="n">
-        <v>-34.643582</v>
+        <v>-34.634615</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -31987,17 +31987,17 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -32012,7 +32012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -32036,10 +32036,10 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>-58.459566</v>
+        <v>-58.437378</v>
       </c>
       <c r="N412" t="n">
-        <v>-34.634615</v>
+        <v>-34.62116</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
@@ -32055,32 +32055,32 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>-499</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>La Rioja 1770</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807946252</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -32090,7 +32090,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -32114,14 +32114,14 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>-58.437378</v>
+        <v>-58.406225</v>
       </c>
       <c r="N413" t="n">
-        <v>-34.62116</v>
+        <v>-34.631314</v>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
@@ -32133,7 +32133,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>-499</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -32143,22 +32143,22 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>La Rioja 1770</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>807946252</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -32168,7 +32168,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -32188,18 +32188,18 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>-58.406225</v>
+        <v>-58.479921</v>
       </c>
       <c r="N414" t="n">
-        <v>-34.631314</v>
+        <v>-34.673021</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
@@ -32211,7 +32211,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>-500</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -32221,22 +32221,22 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Castañares 5656</t>
+          <t>ARCOS 2739</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>807965771</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -32246,7 +32246,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Columna chocada con rienda a pique</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -32266,30 +32266,30 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>-58.479921</v>
+        <v>-58.45893</v>
       </c>
       <c r="N415" t="n">
-        <v>-34.673021</v>
+        <v>-34.554449</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -32299,22 +32299,22 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>ARCOS 2739</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>807965771</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -32324,7 +32324,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -32348,26 +32348,26 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>-58.45893</v>
+        <v>-58.413941</v>
       </c>
       <c r="N416" t="n">
-        <v>-34.554449</v>
+        <v>-34.57698</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P416" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -32377,7 +32377,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -32387,12 +32387,12 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -32402,7 +32402,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -32426,10 +32426,10 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>-58.413941</v>
+        <v>-58.421822</v>
       </c>
       <c r="N417" t="n">
-        <v>-34.57698</v>
+        <v>-34.58645</v>
       </c>
       <c r="O417" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -32455,7 +32455,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -32504,10 +32504,10 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>-58.421822</v>
+        <v>-58.414507</v>
       </c>
       <c r="N418" t="n">
-        <v>-34.58645</v>
+        <v>-34.585377</v>
       </c>
       <c r="O418" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -32533,7 +32533,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -32582,10 +32582,10 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>-58.414507</v>
+        <v>-58.422084</v>
       </c>
       <c r="N419" t="n">
-        <v>-34.585377</v>
+        <v>-34.58625</v>
       </c>
       <c r="O419" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -32611,7 +32611,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -32660,10 +32660,10 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>-58.422084</v>
+        <v>-58.422931</v>
       </c>
       <c r="N420" t="n">
-        <v>-34.58625</v>
+        <v>-34.585597</v>
       </c>
       <c r="O420" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -32689,7 +32689,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -32699,12 +32699,12 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -32714,17 +32714,17 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -32734,18 +32734,18 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>-58.422931</v>
+        <v>-58.405749</v>
       </c>
       <c r="N421" t="n">
-        <v>-34.585597</v>
+        <v>-34.58224</v>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P421" t="inlineStr">
@@ -32757,27 +32757,27 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -32792,17 +32792,17 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -32816,26 +32816,26 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N422" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -32845,17 +32845,17 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -32870,7 +32870,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -32880,65 +32880,65 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N423" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P423" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6362</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>ARIAS 3422</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099435</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Poste inclinado mal ubicado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -32963,35 +32963,35 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>-58.400188</v>
+        <v>-58.483313</v>
       </c>
       <c r="N424" t="n">
-        <v>-34.583882</v>
+        <v>-34.54605</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P424" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -33001,7 +33001,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>ARIAS 3422</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>808099435</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -33026,7 +33026,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Poste inclinado mal ubicado</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -33036,7 +33036,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -33050,10 +33050,10 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>-58.483313</v>
+        <v>-58.47192</v>
       </c>
       <c r="N425" t="n">
-        <v>-34.54605</v>
+        <v>-34.549398</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6372</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -33079,22 +33079,22 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>AVELLANEDA 4500</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808099405</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -33104,7 +33104,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -33114,7 +33114,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -33124,18 +33124,18 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>-58.47192</v>
+        <v>-58.489219</v>
       </c>
       <c r="N426" t="n">
-        <v>-34.549398</v>
+        <v>-34.632475</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P426" t="inlineStr">
@@ -33147,7 +33147,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>6372</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -33157,22 +33157,22 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>AVELLANEDA 4500</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>808099405</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -33206,26 +33206,26 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>-58.489219</v>
+        <v>-58.461858</v>
       </c>
       <c r="N427" t="n">
-        <v>-34.632475</v>
+        <v>-34.619348</v>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -33235,22 +33235,22 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -33284,14 +33284,14 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>-58.461858</v>
+        <v>-58.426322</v>
       </c>
       <c r="N428" t="n">
-        <v>-34.619348</v>
+        <v>-34.600097</v>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P428" t="inlineStr">
@@ -33303,7 +33303,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -33313,17 +33313,17 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -33362,95 +33362,17 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N429" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P429" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>6383</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>7/8/2025</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>808099320</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G430" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I430" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J430" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M430" t="n">
-        <v>-58.448523</v>
-      </c>
-      <c r="N430" t="n">
-        <v>-34.62452</v>
-      </c>
-      <c r="O430" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P430" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -35341,7 +35263,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -40430,7 +40352,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -41596,7 +41518,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -41674,7 +41596,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -46813,7 +46735,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -51885,7 +51807,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -52041,7 +51963,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -52119,7 +52041,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -52197,7 +52119,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -52275,7 +52197,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -56012,7 +55934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56120,7 +56042,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -56198,7 +56120,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -56276,7 +56198,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -56350,7 +56272,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -56428,7 +56350,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -56506,7 +56428,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -56584,7 +56506,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -56662,7 +56584,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -56740,7 +56662,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -56814,7 +56736,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -56892,7 +56814,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -56966,7 +56888,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -57044,7 +56966,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -57122,7 +57044,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -57200,7 +57122,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -57278,7 +57200,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -57352,7 +57274,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -57426,7 +57348,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -57504,7 +57426,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -57582,7 +57504,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -57660,7 +57582,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -57738,7 +57660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -57890,7 +57812,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -57968,7 +57890,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -58046,7 +57968,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -58124,7 +58046,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -58202,7 +58124,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -58280,7 +58202,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -58358,7 +58280,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -58436,7 +58358,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -58670,7 +58592,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -58826,7 +58748,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -58904,7 +58826,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -59216,7 +59138,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -59294,7 +59216,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -59372,7 +59294,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -59450,7 +59372,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -59528,7 +59450,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -59606,7 +59528,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -59684,7 +59606,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -59762,7 +59684,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -59840,7 +59762,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -59918,7 +59840,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -59996,7 +59918,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -60074,7 +59996,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -60152,7 +60074,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -60230,7 +60152,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -60308,7 +60230,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -60386,7 +60308,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -60464,7 +60386,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -60542,7 +60464,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -60620,7 +60542,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -60698,7 +60620,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -60776,7 +60698,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -60854,7 +60776,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -60932,7 +60854,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -61010,7 +60932,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -61088,7 +61010,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -61166,7 +61088,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -61244,7 +61166,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -61322,7 +61244,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -61400,7 +61322,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -61478,7 +61400,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -61556,7 +61478,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -61634,7 +61556,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -61712,7 +61634,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -61790,7 +61712,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -61868,7 +61790,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -61946,7 +61868,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -62024,7 +61946,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -62102,7 +62024,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -62180,7 +62102,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -62258,7 +62180,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -62336,7 +62258,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -64345,7 +64267,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -64355,17 +64277,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -64380,7 +64302,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -64390,7 +64312,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -64400,18 +64322,18 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.471717</v>
+        <v>-58.452636</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.649961</v>
+        <v>-34.558607</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -64423,27 +64345,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -64458,7 +64380,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -64478,50 +64400,50 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.452636</v>
+        <v>-58.479921</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.558607</v>
+        <v>-34.673021</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-500</t>
+          <t>6372</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Castañares 5656</t>
+          <t>AVELLANEDA 4500</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808099405</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -64536,7 +64458,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Columna chocada con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -64556,99 +64478,21 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.479921</v>
+        <v>-58.489219</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.673021</v>
+        <v>-34.632475</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>6372</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>7/8/2025</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>AVELLANEDA 4500</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>808099405</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>-58.489219</v>
-      </c>
-      <c r="N111" t="n">
-        <v>-34.632475</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -64773,7 +64617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -64839,7 +64683,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -64901,7 +64745,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -64967,7 +64811,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -65033,7 +64877,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -65099,7 +64943,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -65161,7 +65005,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -65227,7 +65071,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -65293,7 +65137,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -65359,7 +65203,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -65425,7 +65269,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -65491,7 +65335,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -65553,7 +65397,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -65615,7 +65459,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -65681,7 +65525,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -65747,7 +65591,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -65813,7 +65657,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -65879,7 +65723,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -65945,7 +65789,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -66011,7 +65855,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -66073,7 +65917,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -66135,7 +65979,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -66201,7 +66045,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -66263,7 +66107,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -66329,7 +66173,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -66391,7 +66235,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -66457,7 +66301,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -66523,7 +66367,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -66585,7 +66429,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -66651,7 +66495,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -66729,7 +66573,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -66803,7 +66647,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -66881,7 +66725,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -66959,7 +66803,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P417"/>
+  <dimension ref="A1:P421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32439,6 +32439,314 @@
       <c r="P417" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>-503</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>7/10/2025</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Salguero 842</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>808148673</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Cambiar columna picada en la base</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>-58.419166</v>
+      </c>
+      <c r="N418" t="n">
+        <v>-34.600265</v>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>-504</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>7/10/2025</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Ohiggins 1611</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>808148679</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Columna podrida en la base</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>-58.448993</v>
+      </c>
+      <c r="N419" t="n">
+        <v>-34.564383</v>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>-505</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Brasil 3181</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>808150460</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M420" t="n">
+        <v>-58.409002</v>
+      </c>
+      <c r="N420" t="n">
+        <v>-34.634523</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>-506</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Gervasio Espinosa 591</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>808150511</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
     </row>
@@ -32453,7 +32761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38278,6 +38586,84 @@
         </is>
       </c>
       <c r="P75" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-505</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Brasil 3181</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>808150460</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>-58.409002</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.634523</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -38294,7 +38680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44761,6 +45147,80 @@
       <c r="P83" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-506</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Gervasio Espinosa 591</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>808150511</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
     </row>
@@ -44775,7 +45235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49208,6 +49668,162 @@
         </is>
       </c>
       <c r="P57" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>-503</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7/10/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Salguero 842</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>808148673</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Cambiar columna picada en la base</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.419166</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.600265</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-504</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7/10/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ohiggins 1611</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>808148679</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Columna podrida en la base</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.448993</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.564383</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P416"/>
+  <dimension ref="A1:P423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -30777,7 +30777,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -30787,7 +30787,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>ARIAS 3422</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -30797,7 +30797,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>808099435</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Poste inclinado mal ubicado</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I407" t="n">
@@ -30820,7 +30820,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30834,10 +30834,10 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>-58.483313</v>
+        <v>-58.47192</v>
       </c>
       <c r="N407" t="n">
-        <v>-34.54605</v>
+        <v>-34.549398</v>
       </c>
       <c r="O407" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6372</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -30863,22 +30863,22 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>AVELLANEDA 4500</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808099405</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -30888,7 +30888,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I408" t="n">
@@ -30896,7 +30896,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30906,18 +30906,18 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>-58.47192</v>
+        <v>-58.489219</v>
       </c>
       <c r="N408" t="n">
-        <v>-34.549398</v>
+        <v>-34.632475</v>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
@@ -30929,7 +30929,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6372</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -30939,22 +30939,22 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>AVELLANEDA 4500</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>808099405</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -30986,26 +30986,26 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>-58.489219</v>
+        <v>-58.461858</v>
       </c>
       <c r="N409" t="n">
-        <v>-34.632475</v>
+        <v>-34.619348</v>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P409" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -31015,22 +31015,22 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -31062,14 +31062,14 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>-58.461858</v>
+        <v>-58.426322</v>
       </c>
       <c r="N410" t="n">
-        <v>-34.619348</v>
+        <v>-34.600097</v>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P410" t="inlineStr">
@@ -31081,7 +31081,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -31091,17 +31091,17 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -31138,14 +31138,14 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N411" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
@@ -31157,32 +31157,32 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -31192,7 +31192,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I412" t="n">
@@ -31214,14 +31214,14 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>-58.448523</v>
+        <v>-58.419166</v>
       </c>
       <c r="N412" t="n">
-        <v>-34.62452</v>
+        <v>-34.600265</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P412" t="inlineStr">
@@ -31233,7 +31233,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -31243,17 +31243,17 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -31268,7 +31268,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I413" t="n">
@@ -31281,7 +31281,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -31290,51 +31290,51 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>-58.419166</v>
+        <v>-58.448993</v>
       </c>
       <c r="N413" t="n">
-        <v>-34.600265</v>
+        <v>-34.564383</v>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>-504</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Ohiggins 1611</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>808148679</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I414" t="n">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -31366,26 +31366,26 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>-58.448993</v>
+        <v>-58.409002</v>
       </c>
       <c r="N414" t="n">
-        <v>-34.564383</v>
+        <v>-34.634523</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -31395,22 +31395,22 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>Gervasio Espinosa 591</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -31441,52 +31441,48 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M415" t="n">
-        <v>-58.409002</v>
-      </c>
-      <c r="N415" t="n">
-        <v>-34.634523</v>
-      </c>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-507</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Gervasio Espinosa 591</t>
+          <t>Tamborini 3291</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194229</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -31509,24 +31505,560 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M416" t="n">
+        <v>-58.473937</v>
+      </c>
+      <c r="N416" t="n">
+        <v>-34.557355</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>-508</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Moldes 2463</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>808194234</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>1</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L416" t="inlineStr">
+      <c r="L417" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr"/>
-      <c r="N416" t="inlineStr"/>
-      <c r="O416" t="inlineStr">
-        <is>
-          <t>No ubicado</t>
-        </is>
-      </c>
-      <c r="P416" t="inlineStr">
-        <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+      <c r="M417" t="n">
+        <v>-58.462281</v>
+      </c>
+      <c r="N417" t="n">
+        <v>-34.560321</v>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>-509</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Paso 58</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>808194240</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>1</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>-58.403422</v>
+      </c>
+      <c r="N418" t="n">
+        <v>-34.609195</v>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>-510</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Larrea 590</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>808194254</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>1</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>-58.402353</v>
+      </c>
+      <c r="N419" t="n">
+        <v>-34.602205</v>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>CASTELLI 304</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>808194260</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M420" t="n">
+        <v>-58.404696</v>
+      </c>
+      <c r="N420" t="n">
+        <v>-34.606337</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>6392</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>MOLDES 1808</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>808194266</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M421" t="n">
+        <v>-58.45719</v>
+      </c>
+      <c r="N421" t="n">
+        <v>-34.566365</v>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>6394</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>LAMBARE 1076</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>808194286</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>1</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M422" t="n">
+        <v>-58.43008</v>
+      </c>
+      <c r="N422" t="n">
+        <v>-34.601416</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>-511</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Carlos Melo 491</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>808194932</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>1</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M423" t="n">
+        <v>-58.363292</v>
+      </c>
+      <c r="N423" t="n">
+        <v>-34.642869</v>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -31541,7 +32073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36990,6 +37522,82 @@
         </is>
       </c>
       <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CASTELLI 304</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>808194260</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>-58.404696</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-34.606337</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -37006,7 +37614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38847,17 +39455,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -38867,7 +39475,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -38882,7 +39490,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -38904,14 +39512,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.403583</v>
+        <v>-58.371855</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.591604</v>
+        <v>-34.646958</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -38923,27 +39531,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -38958,11 +39566,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -38980,14 +39588,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.439791</v>
+        <v>-58.403583</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61969</v>
+        <v>-34.591604</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -38999,7 +39607,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -39009,17 +39617,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -39029,10 +39637,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
@@ -39043,7 +39655,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -39052,10 +39664,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.483821</v>
+        <v>-58.439791</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.677698</v>
+        <v>-34.61969</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -39071,27 +39683,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -39101,73 +39713,69 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.485232</v>
+        <v>-58.483821</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.611573</v>
+        <v>-34.677698</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -39182,7 +39790,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -39190,60 +39798,60 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.445131</v>
+        <v>-58.485232</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.572117</v>
+        <v>-34.611573</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -39258,7 +39866,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -39271,7 +39879,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -39280,14 +39888,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -39299,27 +39907,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -39334,7 +39942,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -39342,7 +39950,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -39356,10 +39964,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -39375,7 +39983,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -39385,7 +39993,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -39395,7 +40003,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -39410,7 +40018,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -39432,14 +40040,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -39451,7 +40059,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -39461,17 +40069,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -39486,7 +40094,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -39494,7 +40102,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -39508,14 +40116,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -39527,27 +40135,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -39562,7 +40170,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -39584,46 +40192,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -39638,7 +40246,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -39660,46 +40268,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -39736,46 +40344,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -39790,7 +40398,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -39812,46 +40420,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -39866,7 +40474,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -39879,7 +40487,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -39888,14 +40496,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -39907,7 +40515,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -39917,17 +40525,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -39942,7 +40550,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -39950,12 +40558,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -39964,14 +40572,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -39983,7 +40591,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -39993,17 +40601,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -40040,14 +40648,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -40059,27 +40667,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -40094,7 +40702,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -40102,12 +40710,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -40116,14 +40724,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.416562</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590589</v>
+        <v>-34.614541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -40135,7 +40743,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -40145,17 +40753,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -40170,7 +40778,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -40183,7 +40791,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -40192,14 +40800,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -40211,7 +40819,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -40221,17 +40829,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -40246,7 +40854,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -40268,26 +40876,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -40297,17 +40905,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -40322,7 +40930,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -40344,26 +40952,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -40373,17 +40981,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -40398,7 +41006,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -40411,7 +41019,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -40420,14 +41028,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -40439,7 +41047,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -40449,17 +41057,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -40474,7 +41082,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -40487,7 +41095,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -40496,14 +41104,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -40515,7 +41123,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -40525,17 +41133,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -40545,16 +41153,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -40572,14 +41180,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.406585</v>
+        <v>-58.423148</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.592933</v>
+        <v>-34.576964</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -40591,7 +41199,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -40601,17 +41209,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -40621,16 +41229,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -40639,55 +41247,55 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.51232</v>
+        <v>-58.406585</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.595637</v>
+        <v>-34.592933</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -40702,7 +41310,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -40720,18 +41328,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -40743,27 +41351,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -40778,7 +41386,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -40786,7 +41394,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -40796,14 +41404,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -40819,17 +41427,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -40839,7 +41447,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -40854,7 +41462,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -40862,7 +41470,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -40872,18 +41480,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -40895,7 +41503,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -40905,17 +41513,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -40952,26 +41560,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -40981,17 +41589,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -41006,7 +41614,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -41019,7 +41627,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -41028,14 +41636,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -41047,27 +41655,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -41082,7 +41690,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -41095,7 +41703,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -41104,14 +41712,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -41123,7 +41731,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -41133,7 +41741,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -41143,7 +41751,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -41158,7 +41766,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -41176,14 +41784,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -41199,7 +41807,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -41209,17 +41817,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -41234,7 +41842,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -41252,14 +41860,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -41275,27 +41883,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -41310,7 +41918,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -41318,7 +41926,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -41328,30 +41936,30 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -41361,17 +41969,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -41386,7 +41994,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -41408,14 +42016,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.425845</v>
+        <v>-58.362579</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.616562</v>
+        <v>-34.635096</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -41427,7 +42035,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -41437,17 +42045,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -41462,7 +42070,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -41470,7 +42078,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -41480,28 +42088,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.640099</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -41511,7 +42131,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -41526,7 +42146,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -41548,10 +42168,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -41567,17 +42187,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -41587,7 +42207,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -41602,7 +42222,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -41623,27 +42243,15 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-34.601217</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -41653,7 +42261,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -41663,7 +42271,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -41678,7 +42286,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -41700,10 +42308,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -41719,7 +42327,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -41729,7 +42337,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -41739,7 +42347,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -41754,7 +42362,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -41776,10 +42384,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -41795,27 +42403,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -41830,7 +42438,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -41838,7 +42446,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -41852,10 +42460,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -41871,17 +42479,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -41891,7 +42499,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -41906,7 +42514,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -41914,7 +42522,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -41928,10 +42536,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -41947,27 +42555,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -41982,7 +42590,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -41990,7 +42598,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -42000,50 +42608,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -42058,7 +42666,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -42066,7 +42674,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -42076,18 +42684,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -42099,27 +42707,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -42134,7 +42742,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -42142,7 +42750,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -42156,14 +42764,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -42175,7 +42783,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -42185,17 +42793,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -42210,7 +42818,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -42218,28 +42826,28 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.400169</v>
+        <v>-58.44848</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617784</v>
+        <v>-34.581338</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -42251,27 +42859,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -42286,7 +42894,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -42294,7 +42902,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -42304,50 +42912,50 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425296</v>
+        <v>-58.448496</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.578706</v>
+        <v>-34.58182</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -42362,7 +42970,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -42375,7 +42983,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -42384,46 +42992,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.474467</v>
+        <v>-58.400169</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.624161</v>
+        <v>-34.617784</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -42438,7 +43046,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -42446,7 +43054,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -42460,10 +43068,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.432644</v>
+        <v>-58.425296</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.595434</v>
+        <v>-34.578706</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -42479,27 +43087,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -42514,7 +43122,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -42527,7 +43135,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -42536,46 +43144,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.401827</v>
+        <v>-58.474467</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.617667</v>
+        <v>-34.624161</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -42590,7 +43198,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -42598,7 +43206,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -42612,14 +43220,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.450359</v>
+        <v>-58.432644</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.643582</v>
+        <v>-34.595434</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -42631,27 +43239,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -42666,7 +43274,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -42679,7 +43287,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -42688,14 +43296,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.459566</v>
+        <v>-58.401827</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.634615</v>
+        <v>-34.617667</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -42707,7 +43315,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -42717,17 +43325,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -42742,7 +43350,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -42764,10 +43372,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.437378</v>
+        <v>-58.450359</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.62116</v>
+        <v>-34.643582</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -42783,27 +43391,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -42818,7 +43426,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -42840,14 +43448,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.413941</v>
+        <v>-58.459566</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.57698</v>
+        <v>-34.634615</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -42859,27 +43467,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -42894,15 +43502,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -42912,18 +43520,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.405749</v>
+        <v>-58.437378</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.58224</v>
+        <v>-34.62116</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -42935,27 +43543,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -42970,7 +43578,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -42978,7 +43586,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -42988,40 +43596,40 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.473179</v>
+        <v>-58.413941</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.629138</v>
+        <v>-34.57698</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -43031,7 +43639,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -43046,32 +43654,32 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.400188</v>
+        <v>-58.405749</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.583882</v>
+        <v>-34.58224</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -43087,27 +43695,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -43122,7 +43730,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -43130,7 +43738,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -43140,50 +43748,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.426322</v>
+        <v>-58.473179</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.600097</v>
+        <v>-34.629138</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -43198,7 +43806,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -43211,7 +43819,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -43220,14 +43828,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.448523</v>
+        <v>-58.400188</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.62452</v>
+        <v>-34.583882</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -43239,27 +43847,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gervasio Espinosa 591</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -43287,24 +43895,252 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.426322</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.600097</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>808099320</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.448523</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.62452</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>-506</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Gervasio Espinosa 591</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>808150511</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
         <is>
           <t>No ubicado</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>-511</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Carlos Melo 491</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>808194932</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.363292</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.642869</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -43319,7 +44155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44004,7 +44840,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -44014,17 +44850,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -44039,7 +44875,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -44047,7 +44883,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -44061,46 +44897,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.371855</v>
+        <v>-58.471774</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.646958</v>
+        <v>-34.565411</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -44115,7 +44951,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -44123,7 +44959,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -44133,18 +44969,18 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.471774</v>
+        <v>-58.44463</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.565411</v>
+        <v>-34.553354</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -44156,27 +44992,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -44189,11 +45025,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>0</v>
       </c>
@@ -44209,18 +45041,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.44463</v>
+        <v>-58.466241</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.553354</v>
+        <v>-34.595741</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -44232,27 +45064,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -44265,13 +45097,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -44285,14 +45121,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.466241</v>
+        <v>-58.47538</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.595741</v>
+        <v>-34.566015</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -44304,27 +45140,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>-312</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804333522</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -44334,25 +45170,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -44361,46 +45197,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.47538</v>
+        <v>-58.434835</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.566015</v>
+        <v>-34.569129</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-312</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804333522</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -44410,73 +45246,73 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.434835</v>
+        <v>-58.473659</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.569129</v>
+        <v>-34.566979</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -44491,7 +45327,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Base picada volvio a ingresar con caso 6322</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -44499,7 +45335,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -44509,18 +45345,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.473659</v>
+        <v>-58.464194</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.566979</v>
+        <v>-34.558092</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -44532,7 +45368,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -44542,7 +45378,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -44552,7 +45388,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -44567,7 +45403,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Base picada volvio a ingresar con caso 6322</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -44585,18 +45421,18 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.464194</v>
+        <v>-58.46161</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558092</v>
+        <v>-34.567849</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -44608,7 +45444,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -44618,17 +45454,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -44643,7 +45479,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -44651,7 +45487,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -44665,14 +45501,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.46161</v>
+        <v>-58.507746</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.567849</v>
+        <v>-34.574217</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -44684,7 +45520,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -44694,7 +45530,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -44704,7 +45540,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -44719,7 +45555,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -44741,10 +45577,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.507746</v>
+        <v>-58.50751</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.574217</v>
+        <v>-34.574543</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -44760,27 +45596,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -44795,7 +45631,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -44803,7 +45639,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -44813,18 +45649,18 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -44836,27 +45672,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -44871,7 +45707,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -44879,12 +45715,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -44893,10 +45729,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -44912,7 +45748,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -44922,7 +45758,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -44932,7 +45768,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -44947,7 +45783,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -44955,12 +45791,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -44969,14 +45805,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -44988,7 +45824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -44998,17 +45834,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -45045,14 +45881,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -45064,27 +45900,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -45099,15 +45935,15 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -45121,14 +45957,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.45573</v>
+        <v>-58.482268</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.556576</v>
+        <v>-34.578975</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -45140,27 +45976,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -45175,15 +46011,15 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -45193,18 +46029,18 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -45216,27 +46052,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -45251,7 +46087,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -45273,14 +46109,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -45292,17 +46128,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -45312,7 +46148,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -45327,7 +46163,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -45335,7 +46171,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -45345,18 +46181,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -45368,7 +46204,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -45378,17 +46214,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -45403,7 +46239,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -45411,7 +46247,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -45425,46 +46261,46 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -45479,7 +46315,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada volvio a entrar como caso 6325</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -45487,7 +46323,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -45497,30 +46333,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -45530,7 +46366,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -45540,7 +46376,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -45555,7 +46391,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -45563,7 +46399,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -45573,14 +46409,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -45596,7 +46432,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -45606,7 +46442,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -45616,7 +46452,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -45653,10 +46489,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -45672,7 +46508,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -45682,17 +46518,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -45729,46 +46565,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.499355</v>
+        <v>-58.432556</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579354</v>
+        <v>-34.570279</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ORTEGA Y GASSET 1816</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805655342</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -45805,46 +46641,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.432556</v>
+        <v>-58.485193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.570279</v>
+        <v>-34.579621</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -45881,46 +46717,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -45935,7 +46771,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -45943,7 +46779,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -45953,30 +46789,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.441563</v>
+        <v>-58.513552</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.569743</v>
+        <v>-34.579829</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -45986,7 +46822,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -45996,7 +46832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -46011,7 +46847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -46019,7 +46855,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -46033,10 +46869,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -46052,17 +46888,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -46072,7 +46908,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -46087,7 +46923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -46095,7 +46931,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -46105,18 +46941,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.513685</v>
+        <v>-58.476106</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579838</v>
+        <v>-34.568373</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -46128,27 +46964,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -46163,7 +46999,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -46171,7 +47007,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -46181,18 +47017,18 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -46204,27 +47040,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -46239,7 +47075,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -46247,7 +47083,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -46257,50 +47093,50 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -46315,7 +47151,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -46337,46 +47173,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.362579</v>
+        <v>-58.480925</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.635096</v>
+        <v>-34.585471</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -46413,26 +47249,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.436298</v>
+        <v>-58.495071</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.578972</v>
+        <v>-34.593122</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -46442,17 +47278,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -46489,10 +47325,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.480925</v>
+        <v>-58.481942</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.585471</v>
+        <v>-34.602989</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -46508,27 +47344,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -46543,7 +47379,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -46561,14 +47397,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.495071</v>
+        <v>-58.517389</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.593122</v>
+        <v>-34.593541</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -46584,27 +47420,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -46619,7 +47455,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -46641,46 +47477,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.481942</v>
+        <v>-58.409579</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602989</v>
+        <v>-34.581134</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -46695,7 +47531,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -46713,40 +47549,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.517389</v>
+        <v>-58.422315</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.593541</v>
+        <v>-34.576988</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -46756,7 +47592,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -46771,7 +47607,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -46789,14 +47625,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.409579</v>
+        <v>-58.441049</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581134</v>
+        <v>-34.574625</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -46812,7 +47648,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -46822,17 +47658,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -46869,10 +47705,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.422315</v>
+        <v>-58.432722</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576988</v>
+        <v>-34.572371</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -46888,17 +47724,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -46908,7 +47744,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -46923,7 +47759,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -46941,14 +47777,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.441049</v>
+        <v>-58.436808</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574625</v>
+        <v>-34.577464</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -46964,27 +47800,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>ARCOS 2739</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807965771</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -46999,7 +47835,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -47021,36 +47857,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.432722</v>
+        <v>-58.45893</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.572371</v>
+        <v>-34.554449</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -47060,7 +47896,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -47097,10 +47933,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.436808</v>
+        <v>-58.421822</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.577464</v>
+        <v>-34.58645</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -47116,7 +47952,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -47126,17 +47962,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARCOS 2739</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965771</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -47151,7 +47987,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -47173,26 +48009,26 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.45893</v>
+        <v>-58.414507</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.554449</v>
+        <v>-34.585377</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -47202,7 +48038,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -47212,7 +48048,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -47249,10 +48085,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.421822</v>
+        <v>-58.422084</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.58645</v>
+        <v>-34.58625</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -47268,7 +48104,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -47278,7 +48114,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -47288,7 +48124,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -47325,10 +48161,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.414507</v>
+        <v>-58.422931</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.585377</v>
+        <v>-34.585597</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -47344,27 +48180,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -47379,7 +48215,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -47387,7 +48223,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -47397,50 +48233,50 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.422084</v>
+        <v>-58.47192</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.58625</v>
+        <v>-34.549398</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -47455,7 +48291,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -47477,14 +48313,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.422931</v>
+        <v>-58.419166</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.585597</v>
+        <v>-34.600265</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -47496,27 +48332,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ARIAS 3422</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808099435</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -47531,7 +48367,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Poste inclinado mal ubicado</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -47544,23 +48380,23 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.483313</v>
+        <v>-58.448993</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.54605</v>
+        <v>-34.564383</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -47572,27 +48408,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>MOLDES 1808</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808194266</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -47607,7 +48443,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -47615,7 +48451,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -47625,173 +48461,21 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.47192</v>
+        <v>-58.45719</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.549398</v>
+        <v>-34.566365</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>-503</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>7/10/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Salguero 842</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>808148673</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Cambiar columna picada en la base</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-58.419166</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-34.600265</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>-504</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>7/10/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ohiggins 1611</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>808148679</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Columna podrida en la base</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.448993</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.564383</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -48137,7 +48821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53422,6 +54106,310 @@
         </is>
       </c>
       <c r="P70" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>-507</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tamborini 3291</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>808194229</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>-58.473937</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-34.557355</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>-508</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Moldes 2463</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>808194234</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>-58.462281</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-34.560321</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>-509</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Paso 58</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>808194240</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>-58.403422</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-34.609195</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>-510</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Larrea 590</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>808194254</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>-58.402353</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-34.602205</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -53438,7 +54426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60869,6 +61857,82 @@
       <c r="P98" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>6394</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LAMBARE 1076</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>808194286</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>-58.43008</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-34.601416</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P413"/>
+  <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21685,32 +21685,32 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>806926499</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>Av. Rivadavia 6713</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926499</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I287" t="n">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21742,51 +21742,51 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>-58.483203</v>
+        <v>-58.460019</v>
       </c>
       <c r="N287" t="n">
-        <v>-34.545634</v>
+        <v>-34.628014</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>806926499</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Av. Rivadavia 6713</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>806926499</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I288" t="n">
@@ -21804,7 +21804,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21818,51 +21818,51 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>-58.460019</v>
+        <v>-58.481483</v>
       </c>
       <c r="N288" t="n">
-        <v>-34.628014</v>
+        <v>-34.544341</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I289" t="n">
@@ -21885,7 +21885,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21894,26 +21894,26 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>-58.481483</v>
+        <v>-58.416562</v>
       </c>
       <c r="N289" t="n">
-        <v>-34.544341</v>
+        <v>-34.590589</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -21923,22 +21923,22 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -21961,7 +21961,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21970,26 +21970,26 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>-58.416562</v>
+        <v>-58.464144</v>
       </c>
       <c r="N290" t="n">
-        <v>-34.590589</v>
+        <v>-34.541832</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -21999,17 +21999,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -22046,14 +22046,14 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>-58.464144</v>
+        <v>-58.501029</v>
       </c>
       <c r="N291" t="n">
-        <v>-34.541832</v>
+        <v>-34.673558</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
@@ -22065,7 +22065,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -22085,7 +22085,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -22100,7 +22100,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I292" t="n">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22118,14 +22118,14 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>-58.501029</v>
+        <v>-58.501565</v>
       </c>
       <c r="N292" t="n">
-        <v>-34.673558</v>
+        <v>-34.673845</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -22151,22 +22151,22 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -22194,30 +22194,30 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>-58.501565</v>
+        <v>-58.429972</v>
       </c>
       <c r="N293" t="n">
-        <v>-34.673845</v>
+        <v>-34.632042</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -22227,17 +22227,17 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I294" t="n">
@@ -22274,26 +22274,26 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N294" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -22303,22 +22303,22 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -22328,7 +22328,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -22350,26 +22350,26 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>-58.47888</v>
+        <v>-58.434761</v>
       </c>
       <c r="N295" t="n">
-        <v>-34.571108</v>
+        <v>-34.598381</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -22379,22 +22379,22 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -22404,7 +22404,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -22426,14 +22426,14 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>-58.434761</v>
+        <v>-58.443196</v>
       </c>
       <c r="N296" t="n">
-        <v>-34.598381</v>
+        <v>-34.618534</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
@@ -22445,7 +22445,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -22455,22 +22455,22 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -22502,14 +22502,14 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>-58.443196</v>
+        <v>-58.433867</v>
       </c>
       <c r="N297" t="n">
-        <v>-34.618534</v>
+        <v>-34.599149</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -22521,7 +22521,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -22531,17 +22531,17 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I298" t="n">
@@ -22574,30 +22574,30 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>-58.433867</v>
+        <v>-58.464177</v>
       </c>
       <c r="N298" t="n">
-        <v>-34.599149</v>
+        <v>-34.558239</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -22607,17 +22607,17 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -22632,7 +22632,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -22650,30 +22650,30 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N299" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -22683,22 +22683,22 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -22730,14 +22730,14 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>-58.412302</v>
+        <v>-58.422268</v>
       </c>
       <c r="N300" t="n">
-        <v>-34.59301</v>
+        <v>-34.627754</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -22749,7 +22749,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -22759,17 +22759,17 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I301" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22806,14 +22806,14 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N301" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
@@ -22825,7 +22825,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -22835,17 +22835,17 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -22855,16 +22855,16 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -22882,14 +22882,14 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N302" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -22901,7 +22901,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -22911,36 +22911,36 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -22958,26 +22958,26 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>-58.406585</v>
+        <v>-58.450724</v>
       </c>
       <c r="N303" t="n">
-        <v>-34.592933</v>
+        <v>-34.567086</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -22987,7 +22987,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -22997,7 +22997,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -23034,14 +23034,14 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N304" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -23053,7 +23053,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -23063,22 +23063,22 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -23088,7 +23088,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -23106,18 +23106,18 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>-58.46522</v>
+        <v>-58.51232</v>
       </c>
       <c r="N305" t="n">
-        <v>-34.556786</v>
+        <v>-34.595637</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -23129,32 +23129,32 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -23164,7 +23164,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I306" t="n">
@@ -23182,18 +23182,18 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>-58.51232</v>
+        <v>-58.476106</v>
       </c>
       <c r="N306" t="n">
-        <v>-34.595637</v>
+        <v>-34.568373</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -23205,17 +23205,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -23225,12 +23225,12 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -23240,11 +23240,11 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -23262,14 +23262,14 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>-58.476106</v>
+        <v>-58.485056</v>
       </c>
       <c r="N307" t="n">
-        <v>-34.568373</v>
+        <v>-34.555059</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -23281,32 +23281,32 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>806981757</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Rodo 5185</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806981757</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -23316,11 +23316,11 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Fuera de plomo</t>
         </is>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -23338,14 +23338,14 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>-58.485056</v>
+        <v>-58.494449</v>
       </c>
       <c r="N308" t="n">
-        <v>-34.555059</v>
+        <v>-34.650431</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -23357,7 +23357,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>806981757</t>
+          <t>806981754</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -23367,7 +23367,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Rodo 5185</t>
+          <t>Corvalan 1195</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>806981757</t>
+          <t>806981754</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Fuera de plomo</t>
+          <t>Columna fuera de plomo</t>
         </is>
       </c>
       <c r="I309" t="n">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23414,10 +23414,10 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>-58.494449</v>
+        <v>-58.495984</v>
       </c>
       <c r="N309" t="n">
-        <v>-34.650431</v>
+        <v>-34.649551</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
@@ -23433,32 +23433,32 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>806981754</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Corvalan 1195</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>806981754</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I310" t="n">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23490,14 +23490,14 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>-58.495984</v>
+        <v>-58.483104</v>
       </c>
       <c r="N310" t="n">
-        <v>-34.649551</v>
+        <v>-34.572353</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P310" t="inlineStr">
@@ -23509,27 +23509,27 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -23544,7 +23544,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I311" t="n">
@@ -23552,7 +23552,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23562,14 +23562,14 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N311" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
@@ -23585,32 +23585,32 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -23620,7 +23620,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I312" t="n">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23642,26 +23642,26 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>-58.483927</v>
+        <v>-58.41193</v>
       </c>
       <c r="N312" t="n">
-        <v>-34.570689</v>
+        <v>-34.626628</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -23671,22 +23671,22 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -23714,30 +23714,30 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>-58.41193</v>
+        <v>-58.501766</v>
       </c>
       <c r="N313" t="n">
-        <v>-34.626628</v>
+        <v>-34.574369</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -23747,17 +23747,17 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -23794,26 +23794,26 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>-58.501766</v>
+        <v>-58.467789</v>
       </c>
       <c r="N314" t="n">
-        <v>-34.574369</v>
+        <v>-34.68463</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -23823,22 +23823,22 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I315" t="n">
@@ -23856,7 +23856,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23866,30 +23866,30 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>-58.467789</v>
+        <v>-58.468425</v>
       </c>
       <c r="N315" t="n">
-        <v>-34.68463</v>
+        <v>-34.54124</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -23909,12 +23909,12 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -23924,7 +23924,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I316" t="n">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23942,14 +23942,14 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>-58.468425</v>
+        <v>-58.467458</v>
       </c>
       <c r="N316" t="n">
-        <v>-34.54124</v>
+        <v>-34.537549</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044207</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>Moldes 4601</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -23985,7 +23985,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044207</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -24018,14 +24018,14 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>-58.467458</v>
+        <v>-58.475622</v>
       </c>
       <c r="N317" t="n">
-        <v>-34.537549</v>
+        <v>-34.542008</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -24041,27 +24041,27 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>807044207</t>
+          <t>807044212</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Moldes 4601</t>
+          <t>Av. Cabildo 4900</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>807044207</t>
+          <t>807044212</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -24098,10 +24098,10 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>-58.475622</v>
+        <v>-58.475021</v>
       </c>
       <c r="N318" t="n">
-        <v>-34.542008</v>
+        <v>-34.54009</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
@@ -24117,27 +24117,27 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>807044212</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Av. Cabildo 4900</t>
+          <t>Del Barco Centenera 894</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>807044212</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -24170,40 +24170,40 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>-58.475021</v>
+        <v>-58.438744</v>
       </c>
       <c r="N319" t="n">
-        <v>-34.54009</v>
+        <v>-34.629929</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Del Barco Centenera 894</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -24246,50 +24246,50 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>-58.438744</v>
+        <v>-58.469783</v>
       </c>
       <c r="N320" t="n">
-        <v>-34.629929</v>
+        <v>-34.599214</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar o desmontar columna aparentemente en desuso</t>
         </is>
       </c>
       <c r="I321" t="n">
@@ -24312,7 +24312,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -24326,26 +24326,26 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N321" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044260</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -24355,17 +24355,17 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Jorge Luis Borges 2493</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044260</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -24380,7 +24380,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Cambiar o desmontar columna aparentemente en desuso</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I322" t="n">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24398,18 +24398,18 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>-58.487144</v>
+        <v>-58.421011</v>
       </c>
       <c r="N322" t="n">
-        <v>-34.669078</v>
+        <v>-34.582138</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
@@ -24421,7 +24421,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>807044260</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -24431,17 +24431,17 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Jorge Luis Borges 2493</t>
+          <t>Echeandía 5779</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>807044260</t>
+          <t>807044286</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -24456,7 +24456,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I323" t="n">
@@ -24464,7 +24464,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24474,18 +24474,18 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>-58.421011</v>
+        <v>-58.487136</v>
       </c>
       <c r="N323" t="n">
-        <v>-34.582138</v>
+        <v>-34.667828</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -24497,7 +24497,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -24507,22 +24507,22 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Echeandía 5779</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>807044286</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -24532,7 +24532,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I324" t="n">
@@ -24554,26 +24554,26 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>-58.487136</v>
+        <v>-58.461167</v>
       </c>
       <c r="N324" t="n">
-        <v>-34.667828</v>
+        <v>-34.561613</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -24583,7 +24583,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -24593,12 +24593,12 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -24608,7 +24608,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I325" t="n">
@@ -24621,7 +24621,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -24630,46 +24630,46 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>-58.461167</v>
+        <v>-58.423551</v>
       </c>
       <c r="N325" t="n">
-        <v>-34.561613</v>
+        <v>-34.581258</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I326" t="n">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -24706,14 +24706,14 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N326" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -24725,7 +24725,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -24745,7 +24745,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I327" t="n">
@@ -24778,14 +24778,14 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N327" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -24811,17 +24811,17 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I328" t="n">
@@ -24854,14 +24854,14 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N328" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -24877,32 +24877,32 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -24912,7 +24912,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I329" t="n">
@@ -24934,14 +24934,14 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>-58.4212</v>
+        <v>-58.396424</v>
       </c>
       <c r="N329" t="n">
-        <v>-34.623575</v>
+        <v>-34.602218</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -24953,7 +24953,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I330" t="n">
@@ -25010,14 +25010,14 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N330" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
@@ -25029,7 +25029,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -25039,17 +25039,17 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I331" t="n">
@@ -25086,14 +25086,14 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N331" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
@@ -25105,7 +25105,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -25115,17 +25115,17 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -25140,7 +25140,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I332" t="n">
@@ -25162,14 +25162,14 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N332" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -25181,32 +25181,32 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -25216,7 +25216,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I333" t="n">
@@ -25238,14 +25238,14 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>-58.459566</v>
+        <v>-58.362579</v>
       </c>
       <c r="N333" t="n">
-        <v>-34.634615</v>
+        <v>-34.635096</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -25257,7 +25257,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -25267,17 +25267,17 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -25292,7 +25292,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I334" t="n">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -25310,30 +25310,30 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N334" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -25343,22 +25343,22 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -25368,7 +25368,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I335" t="n">
@@ -25376,7 +25376,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -25386,30 +25386,30 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>-58.487371</v>
+        <v>-58.445558</v>
       </c>
       <c r="N335" t="n">
-        <v>-34.640099</v>
+        <v>-34.581191</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -25429,7 +25429,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -25466,10 +25466,10 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>-58.445558</v>
+        <v>-58.446125</v>
       </c>
       <c r="N336" t="n">
-        <v>-34.581191</v>
+        <v>-34.580819</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -25495,7 +25495,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -25538,14 +25538,14 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N337" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -25571,17 +25571,17 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -25614,18 +25614,18 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N338" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -25637,7 +25637,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -25647,22 +25647,22 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -25672,7 +25672,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I339" t="n">
@@ -25694,14 +25694,14 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>-58.461271</v>
+        <v>-58.425845</v>
       </c>
       <c r="N339" t="n">
-        <v>-34.625615</v>
+        <v>-34.616562</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -25723,7 +25723,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -25733,7 +25733,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I340" t="n">
@@ -25769,52 +25769,40 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>-58.425845</v>
-      </c>
-      <c r="N340" t="n">
-        <v>-34.616562</v>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -25824,7 +25812,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I341" t="n">
@@ -25845,40 +25833,52 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M341" t="inlineStr"/>
-      <c r="N341" t="inlineStr"/>
-      <c r="O341" t="inlineStr"/>
-      <c r="P341" t="inlineStr"/>
+      <c r="M341" t="n">
+        <v>-58.458518</v>
+      </c>
+      <c r="N341" t="n">
+        <v>-34.564693</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -25888,7 +25888,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I342" t="n">
@@ -25910,26 +25910,26 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>-58.486716</v>
+        <v>-58.416477</v>
       </c>
       <c r="N342" t="n">
-        <v>-34.550004</v>
+        <v>-34.61303</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -25939,22 +25939,22 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -25964,7 +25964,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I343" t="n">
@@ -25986,26 +25986,26 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>-58.458518</v>
+        <v>-58.427424</v>
       </c>
       <c r="N343" t="n">
-        <v>-34.564693</v>
+        <v>-34.601217</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -26015,7 +26015,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -26025,7 +26025,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -26040,7 +26040,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I344" t="n">
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>-58.416477</v>
+        <v>-58.426665</v>
       </c>
       <c r="N344" t="n">
-        <v>-34.61303</v>
+        <v>-34.598019</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -26101,7 +26101,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I345" t="n">
@@ -26138,10 +26138,10 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>-58.427424</v>
+        <v>-58.425478</v>
       </c>
       <c r="N345" t="n">
-        <v>-34.601217</v>
+        <v>-34.601865</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -26167,22 +26167,22 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -26214,14 +26214,14 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>-58.426665</v>
+        <v>-58.436298</v>
       </c>
       <c r="N346" t="n">
-        <v>-34.598019</v>
+        <v>-34.578972</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
@@ -26233,32 +26233,32 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I347" t="n">
@@ -26290,10 +26290,10 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>-58.425478</v>
+        <v>-58.401624</v>
       </c>
       <c r="N347" t="n">
-        <v>-34.601865</v>
+        <v>-34.612001</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
@@ -26309,32 +26309,32 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -26344,7 +26344,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I348" t="n">
@@ -26352,7 +26352,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26366,14 +26366,14 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>-58.436298</v>
+        <v>-58.440448</v>
       </c>
       <c r="N348" t="n">
-        <v>-34.578972</v>
+        <v>-34.611223</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -26385,32 +26385,32 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -26420,7 +26420,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -26442,51 +26442,51 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>-58.401624</v>
+        <v>-58.480925</v>
       </c>
       <c r="N349" t="n">
-        <v>-34.612001</v>
+        <v>-34.585471</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -26496,7 +26496,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -26504,7 +26504,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26518,26 +26518,26 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>-58.440448</v>
+        <v>-58.495071</v>
       </c>
       <c r="N350" t="n">
-        <v>-34.611223</v>
+        <v>-34.593122</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -26547,17 +26547,17 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -26594,10 +26594,10 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>-58.480925</v>
+        <v>-58.481942</v>
       </c>
       <c r="N351" t="n">
-        <v>-34.585471</v>
+        <v>-34.602989</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
@@ -26613,32 +26613,32 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -26648,7 +26648,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I352" t="n">
@@ -26666,40 +26666,40 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>-58.495071</v>
+        <v>-58.426431</v>
       </c>
       <c r="N352" t="n">
-        <v>-34.593122</v>
+        <v>-34.627954</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -26724,7 +26724,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I353" t="n">
@@ -26742,14 +26742,14 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N353" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -26765,32 +26765,32 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I354" t="n">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26818,18 +26818,18 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>-58.426431</v>
+        <v>-58.422775</v>
       </c>
       <c r="N354" t="n">
-        <v>-34.627954</v>
+        <v>-34.604135</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
@@ -26841,32 +26841,32 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I355" t="n">
@@ -26894,18 +26894,18 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>-58.517389</v>
+        <v>-58.49147</v>
       </c>
       <c r="N355" t="n">
-        <v>-34.593541</v>
+        <v>-34.55031</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -26917,27 +26917,27 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -26960,7 +26960,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26970,50 +26970,50 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>-58.422775</v>
+        <v>-58.497698</v>
       </c>
       <c r="N356" t="n">
-        <v>-34.604135</v>
+        <v>-34.612038</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -27026,11 +27026,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H357" t="inlineStr"/>
       <c r="I357" t="n">
         <v>1</v>
       </c>
@@ -27050,26 +27046,26 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N357" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -27079,22 +27075,22 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -27104,7 +27100,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I358" t="n">
@@ -27112,7 +27108,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -27122,18 +27118,18 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>-58.497698</v>
+        <v>-58.469257</v>
       </c>
       <c r="N358" t="n">
-        <v>-34.612038</v>
+        <v>-34.542018</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
@@ -27145,7 +27141,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -27155,7 +27151,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -27165,12 +27161,12 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -27178,7 +27174,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+        </is>
+      </c>
       <c r="I359" t="n">
         <v>1</v>
       </c>
@@ -27198,14 +27198,14 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>-58.405761</v>
+        <v>-58.409579</v>
       </c>
       <c r="N359" t="n">
-        <v>-34.582476</v>
+        <v>-34.581134</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
@@ -27217,32 +27217,32 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -27252,7 +27252,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I360" t="n">
@@ -27270,40 +27270,40 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>-58.469257</v>
+        <v>-58.432241</v>
       </c>
       <c r="N360" t="n">
-        <v>-34.542018</v>
+        <v>-34.56642</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -27313,12 +27313,12 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -27328,7 +27328,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I361" t="n">
@@ -27350,10 +27350,10 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>-58.409579</v>
+        <v>-58.417348</v>
       </c>
       <c r="N361" t="n">
-        <v>-34.581134</v>
+        <v>-34.595467</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
@@ -27369,32 +27369,32 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -27404,7 +27404,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I362" t="n">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27422,14 +27422,14 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>-58.432241</v>
+        <v>-58.44848</v>
       </c>
       <c r="N362" t="n">
-        <v>-34.56642</v>
+        <v>-34.581338</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
@@ -27445,32 +27445,32 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I363" t="n">
@@ -27488,7 +27488,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27498,30 +27498,30 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>-58.417348</v>
+        <v>-58.448496</v>
       </c>
       <c r="N363" t="n">
-        <v>-34.595467</v>
+        <v>-34.58182</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -27531,22 +27531,22 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -27556,7 +27556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I364" t="n">
@@ -27564,7 +27564,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27578,14 +27578,14 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>-58.44848</v>
+        <v>-58.472311</v>
       </c>
       <c r="N364" t="n">
-        <v>-34.581338</v>
+        <v>-34.654867</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
@@ -27597,7 +27597,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -27607,22 +27607,22 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -27632,7 +27632,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I365" t="n">
@@ -27640,7 +27640,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27650,30 +27650,30 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>-58.448496</v>
+        <v>-58.395688</v>
       </c>
       <c r="N365" t="n">
-        <v>-34.58182</v>
+        <v>-34.592023</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -27683,22 +27683,22 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -27726,18 +27726,18 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>-58.472311</v>
+        <v>-58.402745</v>
       </c>
       <c r="N366" t="n">
-        <v>-34.654867</v>
+        <v>-34.627478</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
@@ -27749,7 +27749,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -27759,22 +27759,22 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -27784,7 +27784,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I367" t="n">
@@ -27797,7 +27797,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -27806,14 +27806,14 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.395688</v>
+        <v>-58.400169</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.592023</v>
+        <v>-34.617784</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
@@ -27825,7 +27825,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -27835,22 +27835,22 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -27882,14 +27882,14 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.402745</v>
+        <v>-58.422315</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.627478</v>
+        <v>-34.576988</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -27901,7 +27901,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -27911,22 +27911,22 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -27936,7 +27936,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I369" t="n">
@@ -27949,23 +27949,23 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.400169</v>
+        <v>-58.441049</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.617784</v>
+        <v>-34.574625</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -27977,7 +27977,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -27987,17 +27987,17 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -28034,10 +28034,10 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.422315</v>
+        <v>-58.432722</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.576988</v>
+        <v>-34.572371</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -28063,22 +28063,22 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I371" t="n">
@@ -28106,30 +28106,30 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.441049</v>
+        <v>-58.450113</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.574625</v>
+        <v>-34.574534</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28139,22 +28139,22 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -28164,7 +28164,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I372" t="n">
@@ -28182,55 +28182,55 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.432722</v>
+        <v>-58.484729</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.572371</v>
+        <v>-34.574614</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -28240,7 +28240,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I373" t="n">
@@ -28262,51 +28262,51 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>-58.450113</v>
+        <v>-58.425296</v>
       </c>
       <c r="N373" t="n">
-        <v>-34.574534</v>
+        <v>-34.578706</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -28334,50 +28334,50 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>-58.484729</v>
+        <v>-58.389598</v>
       </c>
       <c r="N374" t="n">
-        <v>-34.574614</v>
+        <v>-34.645174</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -28392,7 +28392,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I375" t="n">
@@ -28414,36 +28414,36 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N375" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I376" t="n">
@@ -28490,10 +28490,10 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>-58.389598</v>
+        <v>-58.387569</v>
       </c>
       <c r="N376" t="n">
-        <v>-34.645174</v>
+        <v>-34.649344</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -28519,22 +28519,22 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -28544,7 +28544,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I377" t="n">
@@ -28566,14 +28566,14 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>-58.474467</v>
+        <v>-58.452636</v>
       </c>
       <c r="N377" t="n">
-        <v>-34.624161</v>
+        <v>-34.558607</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -28585,32 +28585,32 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -28620,7 +28620,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I378" t="n">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28642,14 +28642,14 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>-58.387569</v>
+        <v>-58.432644</v>
       </c>
       <c r="N378" t="n">
-        <v>-34.649344</v>
+        <v>-34.595434</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -28661,32 +28661,32 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I379" t="n">
@@ -28709,7 +28709,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -28718,51 +28718,51 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>-58.452636</v>
+        <v>-58.401827</v>
       </c>
       <c r="N379" t="n">
-        <v>-34.558607</v>
+        <v>-34.617667</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I380" t="n">
@@ -28780,7 +28780,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28794,10 +28794,10 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>-58.432644</v>
+        <v>-58.436808</v>
       </c>
       <c r="N380" t="n">
-        <v>-34.595434</v>
+        <v>-34.577464</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
@@ -28813,27 +28813,27 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -28848,7 +28848,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I381" t="n">
@@ -28861,7 +28861,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -28870,14 +28870,14 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N381" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -28889,32 +28889,32 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -28924,7 +28924,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I382" t="n">
@@ -28946,14 +28946,14 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>-58.436808</v>
+        <v>-58.459566</v>
       </c>
       <c r="N382" t="n">
-        <v>-34.577464</v>
+        <v>-34.634615</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -28965,7 +28965,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -28975,17 +28975,17 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -29000,7 +29000,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I383" t="n">
@@ -29022,10 +29022,10 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N383" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
@@ -29041,32 +29041,32 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I384" t="n">
@@ -29094,14 +29094,14 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>-58.459566</v>
+        <v>-58.479921</v>
       </c>
       <c r="N384" t="n">
-        <v>-34.634615</v>
+        <v>-34.673021</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
@@ -29117,27 +29117,27 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -29152,7 +29152,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I385" t="n">
@@ -29174,14 +29174,14 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N385" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -29193,7 +29193,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>-500</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -29203,22 +29203,22 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Castañares 5656</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Columna chocada con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I386" t="n">
@@ -29246,18 +29246,18 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>-58.479921</v>
+        <v>-58.421822</v>
       </c>
       <c r="N386" t="n">
-        <v>-34.673021</v>
+        <v>-34.58645</v>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -29269,7 +29269,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -29279,7 +29279,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -29289,12 +29289,12 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -29304,7 +29304,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I387" t="n">
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>-58.413941</v>
+        <v>-58.414507</v>
       </c>
       <c r="N387" t="n">
-        <v>-34.57698</v>
+        <v>-34.585377</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -29355,7 +29355,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -29365,7 +29365,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -29402,10 +29402,10 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>-58.421822</v>
+        <v>-58.422084</v>
       </c>
       <c r="N388" t="n">
-        <v>-34.58645</v>
+        <v>-34.58625</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -29431,7 +29431,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -29441,7 +29441,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -29478,10 +29478,10 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>-58.414507</v>
+        <v>-58.422931</v>
       </c>
       <c r="N389" t="n">
-        <v>-34.585377</v>
+        <v>-34.585597</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -29507,7 +29507,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -29517,12 +29517,12 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -29532,15 +29532,15 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -29550,18 +29550,18 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>-58.422084</v>
+        <v>-58.405749</v>
       </c>
       <c r="N390" t="n">
-        <v>-34.58625</v>
+        <v>-34.58224</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -29573,32 +29573,32 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -29608,7 +29608,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I391" t="n">
@@ -29616,7 +29616,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29626,40 +29626,40 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>-58.422931</v>
+        <v>-58.473179</v>
       </c>
       <c r="N391" t="n">
-        <v>-34.585597</v>
+        <v>-34.629138</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -29669,7 +29669,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -29684,32 +29684,32 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>-58.405749</v>
+        <v>-58.400188</v>
       </c>
       <c r="N392" t="n">
-        <v>-34.58224</v>
+        <v>-34.583882</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
@@ -29725,32 +29725,32 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I393" t="n">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29778,18 +29778,18 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>-58.473179</v>
+        <v>-58.47192</v>
       </c>
       <c r="N393" t="n">
-        <v>-34.629138</v>
+        <v>-34.549398</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
@@ -29801,32 +29801,32 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -29836,7 +29836,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I394" t="n">
@@ -29849,7 +29849,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -29858,14 +29858,14 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>-58.400188</v>
+        <v>-58.461858</v>
       </c>
       <c r="N394" t="n">
-        <v>-34.583882</v>
+        <v>-34.619348</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -29877,7 +29877,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -29887,22 +29887,22 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -29912,7 +29912,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I395" t="n">
@@ -29920,7 +29920,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29930,30 +29930,30 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>-58.47192</v>
+        <v>-58.426322</v>
       </c>
       <c r="N395" t="n">
-        <v>-34.549398</v>
+        <v>-34.600097</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -29963,22 +29963,22 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -30010,10 +30010,10 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>-58.461858</v>
+        <v>-58.448523</v>
       </c>
       <c r="N396" t="n">
-        <v>-34.619348</v>
+        <v>-34.62452</v>
       </c>
       <c r="O396" t="inlineStr">
         <is>
@@ -30029,17 +30029,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -30049,12 +30049,12 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I397" t="n">
@@ -30086,10 +30086,10 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>-58.426322</v>
+        <v>-58.419166</v>
       </c>
       <c r="N397" t="n">
-        <v>-34.600097</v>
+        <v>-34.600265</v>
       </c>
       <c r="O397" t="inlineStr">
         <is>
@@ -30105,32 +30105,32 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I398" t="n">
@@ -30153,7 +30153,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -30162,51 +30162,51 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>-58.448523</v>
+        <v>-58.448993</v>
       </c>
       <c r="N398" t="n">
-        <v>-34.62452</v>
+        <v>-34.564383</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -30216,7 +30216,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I399" t="n">
@@ -30238,14 +30238,14 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>-58.419166</v>
+        <v>-58.409002</v>
       </c>
       <c r="N399" t="n">
-        <v>-34.600265</v>
+        <v>-34.634523</v>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -30257,32 +30257,32 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>-504</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Ohiggins 1611</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>808148679</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -30292,7 +30292,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I400" t="n">
@@ -30314,51 +30314,51 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>-58.448993</v>
+        <v>-58.449</v>
       </c>
       <c r="N400" t="n">
-        <v>-34.564383</v>
+        <v>-34.616077</v>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>-507</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>Tamborini 3291</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>808194229</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -30390,51 +30390,51 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>-58.409002</v>
+        <v>-58.473937</v>
       </c>
       <c r="N401" t="n">
-        <v>-34.634523</v>
+        <v>-34.557355</v>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P401" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-508</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Moldes 2463</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194234</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -30466,26 +30466,26 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>-58.449</v>
+        <v>-58.462281</v>
       </c>
       <c r="N402" t="n">
-        <v>-34.616077</v>
+        <v>-34.560321</v>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>-507</t>
+          <t>-509</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -30495,17 +30495,17 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Tamborini 3291</t>
+          <t>Paso 58</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>808194229</t>
+          <t>808194240</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -30542,26 +30542,26 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>-58.473937</v>
+        <v>-58.403422</v>
       </c>
       <c r="N403" t="n">
-        <v>-34.557355</v>
+        <v>-34.609195</v>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>-508</t>
+          <t>-510</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -30571,17 +30571,17 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Moldes 2463</t>
+          <t>Larrea 590</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>808194234</t>
+          <t>808194254</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -30609,7 +30609,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -30618,26 +30618,26 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>-58.462281</v>
+        <v>-58.402353</v>
       </c>
       <c r="N404" t="n">
-        <v>-34.560321</v>
+        <v>-34.602205</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>-509</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -30647,7 +30647,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Paso 58</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -30657,12 +30657,12 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>808194240</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>-58.403422</v>
+        <v>-58.404696</v>
       </c>
       <c r="N405" t="n">
-        <v>-34.609195</v>
+        <v>-34.606337</v>
       </c>
       <c r="O405" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>-510</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -30723,22 +30723,22 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Larrea 590</t>
+          <t>MOLDES 1808</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>808194254</t>
+          <t>808194266</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -30761,7 +30761,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -30770,26 +30770,26 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>-58.402353</v>
+        <v>-58.45719</v>
       </c>
       <c r="N406" t="n">
-        <v>-34.602205</v>
+        <v>-34.566365</v>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P406" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>6394</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -30799,22 +30799,22 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>LAMBARE 1076</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808194286</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -30846,10 +30846,10 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>-58.404696</v>
+        <v>-58.43008</v>
       </c>
       <c r="N407" t="n">
-        <v>-34.606337</v>
+        <v>-34.601416</v>
       </c>
       <c r="O407" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>6392</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -30875,22 +30875,22 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>MOLDES 1808</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>808194266</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -30918,55 +30918,55 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>-58.45719</v>
+        <v>-58.363292</v>
       </c>
       <c r="N408" t="n">
-        <v>-34.566365</v>
+        <v>-34.642869</v>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>6394</t>
+          <t>-512</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>LAMBARE 1076</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>808194286</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -30998,36 +30998,36 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>-58.43008</v>
+        <v>-58.470347</v>
       </c>
       <c r="N409" t="n">
-        <v>-34.601416</v>
+        <v>-34.547965</v>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P409" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -31037,7 +31037,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -31052,7 +31052,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I410" t="n">
@@ -31070,14 +31070,14 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N410" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O410" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>-512</t>
+          <t>-514</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -31103,17 +31103,17 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>Bilbao 2452</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>808243829</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -31150,51 +31150,51 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>-58.470347</v>
+        <v>-58.460594</v>
       </c>
       <c r="N411" t="n">
-        <v>-34.547965</v>
+        <v>-34.635581</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>6399</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>ESCALADA AV. 966</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808258198</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -31204,7 +31204,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I412" t="n">
@@ -31226,95 +31226,19 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>-58.372941</v>
+        <v>-58.493069</v>
       </c>
       <c r="N412" t="n">
-        <v>-34.648341</v>
+        <v>-34.646557</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>-514</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>Bilbao 2452</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>808243829</t>
-        </is>
-      </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I413" t="n">
-        <v>1</v>
-      </c>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M413" t="n">
-        <v>-58.460594</v>
-      </c>
-      <c r="N413" t="n">
-        <v>-34.635581</v>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P413" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -31329,7 +31253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34962,17 +34886,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CONDE 4618</t>
+          <t>PINTO 4677</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -34982,7 +34906,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926485</t>
+          <t>806926523</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -34997,7 +34921,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -35019,10 +34943,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483203</v>
+        <v>-58.481483</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.545634</v>
+        <v>-34.544341</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -35038,27 +34962,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PINTO 4677</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926523</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -35073,7 +34997,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en la base no corre riesgo tiene CDO y red HFC de nuestra empresa</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -35095,14 +35019,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.481483</v>
+        <v>-58.450724</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.544341</v>
+        <v>-34.567086</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -35114,7 +35038,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -35124,7 +35048,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -35134,7 +35058,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -35171,14 +35095,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.450724</v>
+        <v>-58.46522</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.567086</v>
+        <v>-34.556786</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -35190,27 +35114,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5940</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>SANCHEZ DE LORIA 1406</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>807044148</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -35225,7 +35149,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -35243,50 +35167,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.46522</v>
+        <v>-58.41193</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.556786</v>
+        <v>-34.626628</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>-460</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>TUCUMAN 2060</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807150552</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -35301,7 +35225,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>columna podrida</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -35319,18 +35243,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.41193</v>
+        <v>-58.396424</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.626628</v>
+        <v>-34.602218</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -35342,7 +35266,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-460</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -35352,7 +35276,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TUCUMAN 2060</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -35362,7 +35286,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807150552</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -35377,7 +35301,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -35399,14 +35323,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.396424</v>
+        <v>-58.404871</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.602218</v>
+        <v>-34.619205</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -35418,7 +35342,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>-462</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -35428,17 +35352,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>Juan Francisco Segui 4507</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -35453,7 +35377,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia corroida</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -35475,14 +35399,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -35494,7 +35418,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-462</t>
+          <t>-463</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -35504,17 +35428,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Juan Francisco Segui 4507</t>
+          <t>Francisco Bilbao 2362</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150735</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -35529,7 +35453,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna propia corroida</t>
+          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -35551,14 +35475,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.420269</v>
+        <v>-58.459566</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.574122</v>
+        <v>-34.634615</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -35570,27 +35494,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-466</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>General Enrique Martinez 140</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168184</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -35605,7 +35529,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -35627,14 +35551,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.459566</v>
+        <v>-58.445558</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.634615</v>
+        <v>-34.581191</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -35646,7 +35570,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -35656,7 +35580,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -35666,7 +35590,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -35703,10 +35627,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.445558</v>
+        <v>-58.446125</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.581191</v>
+        <v>-34.580819</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -35722,7 +35646,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -35732,7 +35656,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -35742,7 +35666,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -35775,14 +35699,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -35798,7 +35722,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -35808,17 +35732,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -35851,18 +35775,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -35874,27 +35798,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -35909,7 +35833,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -35931,46 +35855,46 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.461271</v>
+        <v>-58.458518</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.625615</v>
+        <v>-34.564693</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/6/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Correa 3812</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807208289</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -35985,7 +35909,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base, informa GCBA</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -36007,46 +35931,46 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.486716</v>
+        <v>-58.401624</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.550004</v>
+        <v>-34.612001</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -36061,7 +35985,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -36079,50 +36003,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.458518</v>
+        <v>-58.426431</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.564693</v>
+        <v>-34.627954</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -36137,7 +36061,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -36155,50 +36079,50 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -36213,7 +36137,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -36231,18 +36155,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.426431</v>
+        <v>-58.395688</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.627954</v>
+        <v>-34.592023</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -36254,27 +36178,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -36289,7 +36213,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -36307,50 +36231,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.469257</v>
+        <v>-58.402745</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -36365,7 +36289,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -36387,14 +36311,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.395688</v>
+        <v>-58.389598</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.592023</v>
+        <v>-34.645174</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -36406,27 +36330,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -36463,10 +36387,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.402745</v>
+        <v>-58.387569</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.627478</v>
+        <v>-34.649344</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -36482,27 +36406,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -36517,7 +36441,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -36539,14 +36463,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.389598</v>
+        <v>-58.461858</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.645174</v>
+        <v>-34.619348</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -36558,17 +36482,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -36578,7 +36502,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -36615,10 +36539,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.387569</v>
+        <v>-58.409002</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.649344</v>
+        <v>-34.634523</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -36634,27 +36558,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -36691,169 +36615,17 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.461858</v>
+        <v>-58.404696</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.619348</v>
+        <v>-34.606337</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>-505</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>7/11/2025</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Brasil 3181</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>808150460</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>-58.409002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-34.634523</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>6388</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>7/14/2025</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CASTELLI 304</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>808194260</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>-58.404696</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-34.606337</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -53686,7 +53458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60509,6 +60281,82 @@
       <c r="P90" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ESCALADA AV. 966</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>808258198</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.493069</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.646557</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
